--- a/김종민_실시간 대응/WBS.xlsx
+++ b/김종민_실시간 대응/WBS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\엔터테이먼트\문서\BoB 9기\과제\3차\김종민_실시간 대응\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{57F4DCE7-1A96-4409-B1B7-990013DE055E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C763E98E-E83B-4464-9D55-06331A74FE37}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="132" yWindow="936" windowWidth="17280" windowHeight="8448" xr2:uid="{35B256A6-5A4A-4D0F-80DD-C9C50C59A13C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{35B256A6-5A4A-4D0F-80DD-C9C50C59A13C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="135">
+  <si>
+    <t>프로그램</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
   <si>
     <t>대 분류</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -48,10 +52,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>수집사유</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>방법</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -69,11 +69,6 @@
   </si>
   <si>
     <t>API Porotocol</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>대응 프로그램
-(Python)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -234,7 +229,18 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>[before] [after]
+(시간 포맷 : yyyy-MM-dd HH:mm:ss)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>/etc/post-data</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>type = "SystemTimeChange"
+before = [before]
+after = [after]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -265,37 +271,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>공격 프로그램
-(Python)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>네트워크</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>파일시스템</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>REST API 서버
-(Node JS)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>클래스 다이어그램</t>
-  </si>
-  <si>
-    <t>(작성 중)</t>
-  </si>
-  <si>
-    <t>[proto] [localAddress] [foreignAddress] [state]
- [pid] [programName] [timer]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[proto] [refCnt] [type] [state]
-[iNode] [pid] [programName] [path]</t>
+    <t>history 파일 로깅</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -303,27 +279,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>history 파일 로깅</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>① 프로그램 가동 시각 이후의 history만 로깅한다.
-② 매 1초마다 추가된 사항을 전송한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>① history</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[before] [after]
-(시간 포맷 : yyyy-MM-dd HH:mm:ss)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>type = "SystemTimeChange"
-before = [before]
-after = [after]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -338,31 +294,379 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>프로그램</t>
+    <t>계정 생성 탐지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>네트워크</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일시스템</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>REST API 서버
+(Node JS)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>주요 로그파일 수집</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>피해 활동 추적</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/log/post-data</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Outputs와 동일한
+필드명과 데이터명을
+작성하여 전송한다.</t>
+  </si>
+  <si>
+    <t>① Inputs 에 명시된 로그 파일을 sudo tail -f [파일]
+   명령어를 통해 지속적으로 데이터를 전송한다.
+(시스템에 해당 로그가 없을 경우, 5초마다 재 검색하여 시연 도중 생성된 것도 로깅한다.)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[path] [date] [user] [message]
+(date : yyyy-MM-dd HH:mm:ss)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/var/log/auth.log → SSH, Telnet 로그
+/var/log/cron → crontab 관련 로그
+/var/log/secure → 접속관련 timestamp, 호스트명, pid
+/var/log/xferlog → ftp를 사용하는 데몬 관련 로그
+/var/log/message → 종합적으로 남는 로그
+/var/log/secure → SSH, Telnet 로그
+/var/log/utmp, /var/log/wtmp → 로그인 시도 로그
+/var/log/xferlog → ftp를 사용하는 데몬 관련 로그</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자 정보 로깅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>계정 생성 탐지</t>
+  </si>
+  <si>
+    <t>① 프로그램 가동 시각 이후의 history만 로깅한다.
+② 매 1초마다 추가된 사항을 전송한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>① cat /etc/passwd</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>① 초기 등록된 사용자를 메모리에 등록한다.
+② 매 5초마다 변조/추가된 사항을 전송한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>['ADD' | 'DEL' | 'MOD'] [user]
+[permission] [daemon] [path]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/account/post-passwd</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>도청</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>① Suricata를 사용하여 통신 IP, Port 수집
+(대응 시 수집했던 초기 통신은 필터링)
+② 룰에 매칭 된 패킷을 5초마다 API서버로 전송</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>네트워크 패킷 송신</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>혼선</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>① 상대의 로깅 서버를 찾아냈을 경우, 해당 패킷
+    구조를 모방하여 1000건 씩 복제 송신한다.
+    (상대팀 대응을 위해 데이터는 변조하지 않는다.)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>① C&amp;C 서버의 상대 IP 주소 등록
+② Suricata를 통해 수집 된 패킷을 C&amp;C
+    서버에 등록 된 IP로 복제 전송 1000회</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>복제 전송</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>포트 개방</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>추가 침투 경로 확보</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>① 포트를 1초에 1개씩 개방한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>① sudo iptables -I INPUT 1 -p tcp --dport 12345 -j ACCEPT
+② sudo iptables -I INPUT 2 -p udp --dport 12345 -j ACCEPT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>로깅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 로그 기록</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>① 모든 공격 시도 시 공격 로그를 남긴다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/attack/post-data</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[type] [time] ['SUCCESS' | 'FAILED'] [message]
+(time : yyyy-MM-dd HH:mm:ss)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>로깅 데이터 탈취</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>① MySQL 사용 여부를 확인한다.
+② MySQL 접속 브루트포스를 진행한다.
+③ 접속에 성공할 경우, 사용자로 인해 추가된
+    스키마 및 테이블을 찾아 데이터를 탈취한다.
+    (DELETE는 하지말것)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>① python에 mysql라이브러리를 부착한다.
+② 무작위 로그인 대입을 실시한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[schema] [table] [dataStream]
+(dataStream : column1:::column2:::….:::columnN)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/attack/post-db</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일 생성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>① 로그 파일을 생성하여 혼선을 준다.
+    (기존 로그파일 덮어쓰기 금지)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>① 로깅 양식과 동일하게 진짜같은 가짜
+    로그파일을 1000개 생성한다.
+② 생성 위치 : /var/log/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시스템 자원 낭비</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>목적</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>① 쓸데없는 연산작업을 8스레드로 10초 마다 반복수행 시킨다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>① while(start) { a = 987654231/4 + a }</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>성능저하로 인한
+로그 전송 시간
+불 일치</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>암호화</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>가짜 파일 암호화</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>① 가짜 로그 파일을 /var/log 아래 생성한다.
+② 생성한 가짜 로그파일을 암호화 시킨다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>① 암호화에 사용할 py 스크립트를 /var/log
+    에 저장한다.
+② 가짜 로그파일 생성 이후, 암호화 시킨다.
+(암호화에 사용된 py 스크립트는 삭제 X)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>① 임의 사이트를 대상으로 쓰레기 데이터를 전송
+    한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>① 임의 IP 주소에 쓰레기값을 전송한다.
+② 매 8089번 째 마다 C&amp;C로
+    로깅 데이터를 전송한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[IP]/attack/post-data</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[type] [time] ['SUCCESS' | 'FAILED'] [message]
+(time : yyyy-MM-dd HH:mm:ss)
+(C&amp;C 이외엔 모두 임의 값으로 채워 보내기)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>가짜 공격 프로세스 생성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>① main.py 라는 이름으로 쓸데없는 파이선 파일을
+    생성 및 실행한다.
+② mysqlConnector.py 라는 이름의 실제 동작
+    파이선 파일을 실행한다.
+③ pyinstaller로 만든 실제 공격 실행파일을
+    /bin 디렉터리에 timed 이름으로 설정하여
+    mysqlConnector.py로 실행한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>자폭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>추적 단서 제거</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대응 모듈 탈취</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>실시간 대응 회피공격</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>① pstree -a 명령을 통해 대응 모듈에서 수집했던
+    초기 필터링 대상을 제외한 나머지 프로세스를
+    확인한다.
+② py 스크립트 및 실행 프로그램의 path를 구한다.
+③ path내부의 모든 파일을 C&amp;C서버에 업로드한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/file/post-program</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>① 매 초 Github.io페이지에 등록된 자폭 여부
+    플래그를 확인한다.
+② 자폭 플래그가 1일 경우, 지금까지 생성했던
+    모든 파일을 제거한다. (/var/log 경로 제외)
+③ history에 남는 기록이 없도록 time으로 채운다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>사용자 접속 정보 로깅</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>계정 생성 탐지</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>① 매 5초마다 계정 상태를 전송한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>① w</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[upTime] [loginUsers] [userName] [tty] [connectFrom] [loginTime] [jcpu] [pcpu] [what]</t>
   </si>
   <si>
     <t>/account/post-info</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[upTime] [loginUsers] [userName] [tty] [connectFrom] [loginTime] [jcpu] [pcpu] [what]</t>
+  </si>
+  <si>
+    <t>도청 방지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>① API 서버로 보내는 모든 통신은 암호화 시킨다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>① 데이터를 json 형식으로 정렬한다.
+② json을 text화 시킨 다음, utf-8로 인코딩
+    하여 한글(2바이트)를 1바이트로 쪼개
+    암호화 시 에러를 방지한다.
+③ 미리 정해 둔 키 값으로
+    AES 혹은 RSA 암호화 시킨다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>① C&amp;C 서버로 보내는 모든 통신은 암호화 시킨다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대응 프로그램
+(pyinstaller로
+추출시킨 py)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 프로그램
+(pyinstaller로
+추출시킨 py)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[time] [proto] [refCnt] [type] [state]
+[iNode] [pid] [programName] [path]
+(time : yyyy-MM-dd HH:mm:ss)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[time] [proto] [localAddress] [foreignAddress]
+[state] [pid] [programName] [timer]
+(time : yyyy-MM-dd HH:mm:ss)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -453,7 +757,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -554,19 +858,6 @@
       <right/>
       <top style="thin">
         <color theme="1"/>
-      </top>
-      <bottom style="hair">
-        <color theme="4" tint="0.59999389629810485"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color theme="1"/>
-      </right>
-      <top style="hair">
-        <color theme="4" tint="0.59999389629810485"/>
       </top>
       <bottom style="hair">
         <color theme="4" tint="0.59999389629810485"/>
@@ -779,7 +1070,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -816,118 +1107,106 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -939,70 +1218,58 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1014,9 +1281,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1032,10 +1296,10 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1047,10 +1311,10 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1065,14 +1329,35 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1090,6 +1375,61 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2662518</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>133010</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DE9A08C-F542-4497-AB35-FC88868BC7CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1156447" y="27369247"/>
+          <a:ext cx="7772400" cy="5287716"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1389,10 +1729,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B20606A0-8F97-42D7-B07E-C96D54E662E5}">
-  <dimension ref="A1:J42"/>
+  <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1410,19 +1750,19 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>3</v>
+        <v>101</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>4</v>
@@ -1433,7 +1773,7 @@
       <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="39" t="s">
+      <c r="I1" s="37" t="s">
         <v>7</v>
       </c>
       <c r="J1" s="9" t="s">
@@ -1441,654 +1781,842 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="69.599999999999994" x14ac:dyDescent="0.4">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="67" t="s">
+        <v>131</v>
+      </c>
+      <c r="B2" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="74" t="s">
+      <c r="C2" s="10" t="s">
         <v>10</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>11</v>
       </c>
       <c r="D2" s="11"/>
       <c r="E2" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="44" t="s">
+      <c r="G2" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="44" t="s">
+      <c r="H2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="I2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="J2" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="41" t="s">
+    </row>
+    <row r="3" spans="1:10" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="A3" s="68"/>
+      <c r="B3" s="92"/>
+      <c r="C3" s="88" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="A3" s="76"/>
-      <c r="B3" s="70"/>
-      <c r="C3" s="66" t="s">
+      <c r="D3" s="14"/>
+      <c r="E3" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="59" t="s">
+      <c r="F3" s="90" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="68" t="s">
+      <c r="G3" s="90" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="68" t="s">
+      <c r="H3" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="I3" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="I3" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" s="64" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="A4" s="77"/>
-      <c r="B4" s="70"/>
-      <c r="C4" s="67"/>
+      <c r="J3" s="86" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="A4" s="69"/>
+      <c r="B4" s="92"/>
+      <c r="C4" s="89"/>
       <c r="D4" s="13"/>
       <c r="E4" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="91"/>
+      <c r="G4" s="91"/>
+      <c r="H4" s="53" t="s">
+        <v>133</v>
+      </c>
+      <c r="I4" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="95" t="s">
-        <v>58</v>
-      </c>
-      <c r="I4" s="12" t="s">
+      <c r="J4" s="87"/>
+    </row>
+    <row r="5" spans="1:10" ht="52.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="69"/>
+      <c r="B5" s="94"/>
+      <c r="C5" s="15" t="s">
         <v>24</v>
-      </c>
-      <c r="J4" s="65"/>
-    </row>
-    <row r="5" spans="1:10" ht="52.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="77"/>
-      <c r="B5" s="73"/>
-      <c r="C5" s="15" t="s">
-        <v>25</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="45" t="s">
+      <c r="G5" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="48" t="s">
+      <c r="H5" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="42" t="s">
+      <c r="I5" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="I5" s="15" t="s">
+      <c r="J5" s="41" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="70.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="69"/>
+      <c r="B6" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="J5" s="43" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="69.599999999999994" x14ac:dyDescent="0.4">
-      <c r="A6" s="77"/>
-      <c r="B6" s="72" t="s">
+      <c r="C6" s="17" t="s">
         <v>31</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>32</v>
       </c>
       <c r="D6" s="18"/>
       <c r="E6" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="46" t="s">
+      <c r="G6" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="46" t="s">
+      <c r="H6" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="38" t="s">
+      <c r="I6" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="I6" s="37" t="s">
+      <c r="J6" s="38" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="208.8" x14ac:dyDescent="0.4">
+      <c r="A7" s="69"/>
+      <c r="B7" s="93" t="s">
         <v>37</v>
       </c>
-      <c r="J6" s="40" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A7" s="77"/>
-      <c r="B7" s="70"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="27"/>
+      <c r="C7" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="18"/>
+      <c r="E7" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="H7" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="I7" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="J7" s="38" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="8" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="77"/>
-      <c r="B8" s="73"/>
+      <c r="A8" s="69"/>
+      <c r="B8" s="94"/>
       <c r="C8" s="15"/>
       <c r="D8" s="16"/>
       <c r="E8" s="15"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
       <c r="H8" s="15"/>
       <c r="I8" s="15"/>
-      <c r="J8" s="28"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A9" s="77"/>
-      <c r="B9" s="72" t="s">
+      <c r="J8" s="27"/>
+    </row>
+    <row r="9" spans="1:10" ht="104.4" x14ac:dyDescent="0.4">
+      <c r="A9" s="69"/>
+      <c r="B9" s="92" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="29"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A10" s="77"/>
-      <c r="B10" s="70"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="27"/>
-    </row>
-    <row r="11" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="77"/>
-      <c r="B11" s="73"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="28"/>
-    </row>
-    <row r="12" spans="1:10" ht="104.4" x14ac:dyDescent="0.4">
-      <c r="A12" s="77"/>
-      <c r="B12" s="70" t="s">
+      <c r="C9" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="59" t="s">
+      <c r="D9" s="14"/>
+      <c r="E9" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="59" t="s">
+      <c r="F9" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="F12" s="60" t="s">
+      <c r="G9" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="G12" s="57" t="s">
+      <c r="H9" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="H12" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="I12" s="37" t="s">
+      <c r="I9" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="J12" s="58" t="s">
+      <c r="J9" s="57" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="A10" s="69"/>
+      <c r="B10" s="92"/>
+      <c r="C10" s="58" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="14"/>
+      <c r="E10" s="58" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="59" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="H10" s="58" t="s">
+        <v>50</v>
+      </c>
+      <c r="I10" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="J10" s="57" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="69.599999999999994" x14ac:dyDescent="0.4">
+      <c r="A11" s="69"/>
+      <c r="B11" s="92"/>
+      <c r="C11" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" s="59" t="s">
+        <v>70</v>
+      </c>
+      <c r="G11" s="48" t="s">
+        <v>54</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I11" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="J11" s="57" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="A12" s="69"/>
+      <c r="B12" s="92"/>
+      <c r="C12" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12" s="54" t="s">
+        <v>72</v>
+      </c>
+      <c r="G12" s="54" t="s">
+        <v>71</v>
+      </c>
+      <c r="H12" s="55" t="s">
+        <v>73</v>
+      </c>
+      <c r="I12" s="55" t="s">
+        <v>74</v>
+      </c>
+      <c r="J12" s="60" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="A13" s="69"/>
+      <c r="B13" s="92"/>
+      <c r="C13" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F13" s="54" t="s">
+        <v>123</v>
+      </c>
+      <c r="G13" s="54" t="s">
+        <v>124</v>
+      </c>
+      <c r="H13" s="55" t="s">
+        <v>125</v>
+      </c>
+      <c r="I13" s="55" t="s">
+        <v>126</v>
+      </c>
+      <c r="J13" s="60" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="A13" s="77"/>
-      <c r="B13" s="70"/>
-      <c r="C13" s="59" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" s="14"/>
-      <c r="E13" s="59" t="s">
-        <v>46</v>
-      </c>
-      <c r="F13" s="60" t="s">
-        <v>47</v>
-      </c>
-      <c r="G13" s="57" t="s">
-        <v>48</v>
-      </c>
-      <c r="H13" s="59" t="s">
-        <v>49</v>
-      </c>
-      <c r="I13" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="J13" s="58" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="69.599999999999994" x14ac:dyDescent="0.4">
-      <c r="A14" s="77"/>
-      <c r="B14" s="70"/>
+    <row r="14" spans="1:10" ht="105" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="69"/>
+      <c r="B14" s="92"/>
       <c r="C14" s="3" t="s">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F14" s="54" t="s">
+        <v>128</v>
+      </c>
+      <c r="G14" s="54" t="s">
+        <v>129</v>
+      </c>
+      <c r="H14" s="55" t="s">
+        <v>81</v>
+      </c>
+      <c r="I14" s="55" t="s">
+        <v>81</v>
+      </c>
+      <c r="J14" s="56" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="52.8" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="83" t="s">
+        <v>132</v>
+      </c>
+      <c r="B15" s="78" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F15" s="62" t="s">
+        <v>76</v>
+      </c>
+      <c r="G15" s="62" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J15" s="63" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="A16" s="84"/>
+      <c r="B16" s="79"/>
+      <c r="C16" s="66" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="66" t="s">
+        <v>78</v>
+      </c>
+      <c r="F16" s="54" t="s">
+        <v>79</v>
+      </c>
+      <c r="G16" s="54" t="s">
+        <v>80</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="J16" s="30" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="A17" s="84"/>
+      <c r="B17" s="79"/>
+      <c r="C17" s="66"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="54" t="s">
+        <v>109</v>
+      </c>
+      <c r="G17" s="54" t="s">
+        <v>110</v>
+      </c>
+      <c r="H17" s="55" t="s">
+        <v>112</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="J17" s="60" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="70.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="84"/>
+      <c r="B18" s="80"/>
+      <c r="C18" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="D18" s="20"/>
+      <c r="E18" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="F18" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="G18" s="65" t="s">
+        <v>86</v>
+      </c>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="31"/>
+    </row>
+    <row r="19" spans="1:10" ht="121.8" x14ac:dyDescent="0.4">
+      <c r="A19" s="84"/>
+      <c r="B19" s="81" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="D19" s="22"/>
+      <c r="E19" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="F19" s="64" t="s">
+        <v>114</v>
+      </c>
+      <c r="G19" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="H19" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="I19" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="J19" s="32" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="A20" s="84"/>
+      <c r="B20" s="79"/>
+      <c r="C20" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="55" t="s">
+        <v>104</v>
+      </c>
+      <c r="F20" s="54" t="s">
+        <v>102</v>
+      </c>
+      <c r="G20" s="54" t="s">
+        <v>103</v>
+      </c>
+      <c r="H20" s="55" t="s">
+        <v>81</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="J20" s="60" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="87.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="84"/>
+      <c r="B21" s="80"/>
+      <c r="C21" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="D21" s="20"/>
+      <c r="E21" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="F21" s="65" t="s">
+        <v>119</v>
+      </c>
+      <c r="G21" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="H21" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="I21" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="J21" s="31" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="A22" s="84"/>
+      <c r="B22" s="81" t="s">
         <v>59</v>
       </c>
-      <c r="F14" s="63" t="s">
-        <v>61</v>
-      </c>
-      <c r="G14" s="52" t="s">
-        <v>62</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="I14" s="97" t="s">
-        <v>44</v>
-      </c>
-      <c r="J14" s="62" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="A15" s="77"/>
-      <c r="B15" s="70"/>
-      <c r="C15" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="F15" s="96" t="s">
-        <v>70</v>
-      </c>
-      <c r="G15" s="52" t="s">
-        <v>71</v>
-      </c>
-      <c r="H15" s="97" t="s">
-        <v>73</v>
-      </c>
-      <c r="I15" s="97" t="s">
-        <v>72</v>
-      </c>
-      <c r="J15" s="61" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="78"/>
-      <c r="B16" s="71"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="50"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="30"/>
-    </row>
-    <row r="17" spans="1:10" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="92" t="s">
-        <v>51</v>
-      </c>
-      <c r="B17" s="87" t="s">
-        <v>52</v>
-      </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="31"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A18" s="93"/>
-      <c r="B18" s="88"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="52"/>
-      <c r="G18" s="52"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="32"/>
-    </row>
-    <row r="19" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="93"/>
-      <c r="B19" s="89"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="53"/>
-      <c r="G19" s="53"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="33"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A20" s="93"/>
-      <c r="B20" s="90" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" s="21"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="54"/>
-      <c r="G20" s="54"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="34"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A21" s="93"/>
-      <c r="B21" s="88"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="52"/>
-      <c r="G21" s="52"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="32"/>
-    </row>
-    <row r="22" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="93"/>
-      <c r="B22" s="89"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="53"/>
-      <c r="G22" s="53"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="33"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A23" s="93"/>
-      <c r="B23" s="90" t="s">
-        <v>53</v>
-      </c>
-      <c r="C23" s="21"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="54"/>
-      <c r="G23" s="54"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="34"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A24" s="93"/>
-      <c r="B24" s="88"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="52"/>
-      <c r="G24" s="52"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="32"/>
-    </row>
-    <row r="25" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="93"/>
-      <c r="B25" s="89"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="53"/>
-      <c r="G25" s="53"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="33"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A26" s="93"/>
-      <c r="B26" s="88" t="s">
-        <v>39</v>
-      </c>
-      <c r="C26" s="3"/>
+      <c r="C22" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="D22" s="22"/>
+      <c r="E22" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="F22" s="64" t="s">
+        <v>98</v>
+      </c>
+      <c r="G22" s="64" t="s">
+        <v>99</v>
+      </c>
+      <c r="H22" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="I22" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="J22" s="32" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="69.599999999999994" x14ac:dyDescent="0.4">
+      <c r="A23" s="84"/>
+      <c r="B23" s="79"/>
+      <c r="C23" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D23" s="4"/>
+      <c r="E23" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F23" s="54" t="s">
+        <v>107</v>
+      </c>
+      <c r="G23" s="54" t="s">
+        <v>108</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="J23" s="30" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="87.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="84"/>
+      <c r="B24" s="80"/>
+      <c r="C24" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="D24" s="20"/>
+      <c r="E24" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="F24" s="65" t="s">
+        <v>121</v>
+      </c>
+      <c r="G24" s="49" t="s">
+        <v>81</v>
+      </c>
+      <c r="H24" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="I24" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="J24" s="31" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="A25" s="84"/>
+      <c r="B25" s="79" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D25" s="4"/>
+      <c r="E25" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F25" s="48" t="s">
+        <v>89</v>
+      </c>
+      <c r="G25" s="48"/>
+      <c r="H25" s="55" t="s">
+        <v>91</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="J25" s="60" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="87" x14ac:dyDescent="0.4">
+      <c r="A26" s="84"/>
+      <c r="B26" s="79"/>
+      <c r="C26" s="3" t="s">
+        <v>92</v>
+      </c>
       <c r="D26" s="4"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="52"/>
-      <c r="G26" s="52"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="32"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A27" s="93"/>
-      <c r="B27" s="88"/>
-      <c r="C27" s="3"/>
+      <c r="E26" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F26" s="54" t="s">
+        <v>93</v>
+      </c>
+      <c r="G26" s="54" t="s">
+        <v>94</v>
+      </c>
+      <c r="H26" s="55" t="s">
+        <v>95</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="J26" s="60" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="105" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="85"/>
+      <c r="B27" s="82"/>
+      <c r="C27" s="3" t="s">
+        <v>105</v>
+      </c>
       <c r="D27" s="4"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="52"/>
-      <c r="G27" s="52"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="32"/>
-    </row>
-    <row r="28" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="94"/>
-      <c r="B28" s="91"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="50"/>
-      <c r="G28" s="50"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="30"/>
-    </row>
-    <row r="29" spans="1:10" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="79" t="s">
-        <v>54</v>
-      </c>
-      <c r="B29" s="82" t="s">
-        <v>52</v>
-      </c>
-      <c r="C29" s="7"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="51"/>
-      <c r="G29" s="51"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="31"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A30" s="80"/>
-      <c r="B30" s="83"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="52"/>
-      <c r="G30" s="52"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="32"/>
-    </row>
-    <row r="31" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="80"/>
-      <c r="B31" s="84"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="55"/>
-      <c r="G31" s="55"/>
-      <c r="H31" s="23"/>
-      <c r="I31" s="23"/>
-      <c r="J31" s="35"/>
+      <c r="E27" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F27" s="54" t="s">
+        <v>130</v>
+      </c>
+      <c r="G27" s="54" t="s">
+        <v>129</v>
+      </c>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="28"/>
+    </row>
+    <row r="28" spans="1:10" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="70" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" s="73" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" s="7"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="47"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="29"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A29" s="71"/>
+      <c r="B29" s="74"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="48"/>
+      <c r="G29" s="48"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="30"/>
+    </row>
+    <row r="30" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="71"/>
+      <c r="B30" s="75"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="50"/>
+      <c r="G30" s="50"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="33"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A31" s="71"/>
+      <c r="B31" s="76" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" s="25"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="51"/>
+      <c r="G31" s="51"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="34"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A32" s="80"/>
-      <c r="B32" s="85" t="s">
-        <v>31</v>
-      </c>
-      <c r="C32" s="25"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="56"/>
-      <c r="G32" s="56"/>
-      <c r="H32" s="25"/>
-      <c r="I32" s="25"/>
-      <c r="J32" s="36"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A33" s="80"/>
-      <c r="B33" s="83"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="52"/>
-      <c r="G33" s="52"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="32"/>
-    </row>
-    <row r="34" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="80"/>
-      <c r="B34" s="84"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="55"/>
-      <c r="G34" s="55"/>
-      <c r="H34" s="23"/>
-      <c r="I34" s="23"/>
-      <c r="J34" s="35"/>
+      <c r="A32" s="71"/>
+      <c r="B32" s="74"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="48"/>
+      <c r="G32" s="48"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="30"/>
+    </row>
+    <row r="33" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A33" s="71"/>
+      <c r="B33" s="75"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="50"/>
+      <c r="G33" s="50"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="23"/>
+      <c r="J33" s="33"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A34" s="71"/>
+      <c r="B34" s="76" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34" s="25"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="51"/>
+      <c r="G34" s="51"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="25"/>
+      <c r="J34" s="34"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A35" s="80"/>
-      <c r="B35" s="85" t="s">
-        <v>53</v>
-      </c>
-      <c r="C35" s="25"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="25"/>
-      <c r="F35" s="56"/>
-      <c r="G35" s="56"/>
-      <c r="H35" s="25"/>
-      <c r="I35" s="25"/>
-      <c r="J35" s="36"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A36" s="80"/>
-      <c r="B36" s="83"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="52"/>
-      <c r="G36" s="52"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="32"/>
-    </row>
-    <row r="37" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="80"/>
-      <c r="B37" s="84"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="23"/>
-      <c r="F37" s="55"/>
-      <c r="G37" s="55"/>
-      <c r="H37" s="23"/>
-      <c r="I37" s="23"/>
-      <c r="J37" s="35"/>
+      <c r="A35" s="71"/>
+      <c r="B35" s="74"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="48"/>
+      <c r="G35" s="48"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="30"/>
+    </row>
+    <row r="36" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A36" s="71"/>
+      <c r="B36" s="75"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="50"/>
+      <c r="G36" s="50"/>
+      <c r="H36" s="23"/>
+      <c r="I36" s="23"/>
+      <c r="J36" s="33"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A37" s="71"/>
+      <c r="B37" s="74" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" s="3"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="48"/>
+      <c r="G37" s="48"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="30"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A38" s="80"/>
-      <c r="B38" s="83" t="s">
-        <v>39</v>
-      </c>
+      <c r="A38" s="71"/>
+      <c r="B38" s="74"/>
       <c r="C38" s="3"/>
       <c r="D38" s="4"/>
       <c r="E38" s="3"/>
-      <c r="F38" s="52"/>
-      <c r="G38" s="52"/>
+      <c r="F38" s="48"/>
+      <c r="G38" s="48"/>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
-      <c r="J38" s="32"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A39" s="80"/>
-      <c r="B39" s="83"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="52"/>
-      <c r="G39" s="52"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="32"/>
-    </row>
-    <row r="40" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="81"/>
-      <c r="B40" s="86"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="50"/>
-      <c r="G40" s="50"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="30"/>
-    </row>
-    <row r="41" spans="1:10" ht="18" thickTop="1" x14ac:dyDescent="0.4"/>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A42" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
+      <c r="J38" s="30"/>
+    </row>
+    <row r="39" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A39" s="72"/>
+      <c r="B39" s="77"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="46"/>
+      <c r="G39" s="46"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="28"/>
+    </row>
+    <row r="40" spans="1:10" ht="18" thickTop="1" x14ac:dyDescent="0.4"/>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="A2:A16"/>
-    <mergeCell ref="A29:A40"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="A17:A28"/>
+  <mergeCells count="20">
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="G3:G4"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B9:B14"/>
+    <mergeCell ref="B7:B8"/>
     <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="A2:A14"/>
+    <mergeCell ref="A28:A39"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="A15:A27"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/김종민_실시간 대응/WBS.xlsx
+++ b/김종민_실시간 대응/WBS.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\엔터테이먼트\문서\BoB 9기\과제\3차\김종민_실시간 대응\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://o365ysu-my.sharepoint.com/personal/10141314_office_ysu_ac_kr/Documents/BoB 실시간 공격 방어/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C763E98E-E83B-4464-9D55-06331A74FE37}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA643D2A-66AF-4C13-9E2B-DE1ADB3BFA86}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{35B256A6-5A4A-4D0F-80DD-C9C50C59A13C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="202">
   <si>
     <t>프로그램</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -48,10 +48,17 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>유사 문제</t>
+  </si>
+  <si>
     <t>담당</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>목적</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>방법</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -69,6 +76,12 @@
   </si>
   <si>
     <t>API Porotocol</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대응 프로그램
+(pyinstaller로
+추출시킨 py)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -126,11 +139,27 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>[time] [proto] [localAddress] [foreignAddress]
+[state] [pid] [programName] [timer]
+(time : yyyy-MM-dd HH:mm:ss)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>/network/post-conn</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>CCE 문제7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>소켓 연결 탐지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[time] [proto] [refCnt] [type] [state]
+[iNode] [pid] [programName] [path]
+(time : yyyy-MM-dd HH:mm:ss)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -149,7 +178,6 @@
     <t>① Inputs 명령어를 통해 초기 arp table정보 수집
 ② 초기 등록된 주소를 필터링 대상으로 등록
 ③ 5초마다 선별 수집된 데이터를 전송한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>① arp</t>
@@ -170,6 +198,11 @@
   </si>
   <si>
     <t>프로세스 동작 상태 수집</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AhnLab Low 문제2
+CCE 문제9</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -181,14 +214,6 @@
 ② 초기 프로세스를 제외한 프로세스만 골라 수집
 ③ 5초마다 Inputs 명령 입력 후, PID기준으로
    정보로 통합 시키고 Outputs 형태로 출력</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>① sudo ps -aux
-② sudo pstree -a
-③ sudo ps -eaf
-④ lsmod</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>[name] [uid] [pid] [ppid] [childName]
@@ -204,139 +229,22 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>기타</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>시스템 시간 수집</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>시간 변조 탐지</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>① 초기 시간의 밀리세컨드 값을 메모리에 저장한다.
-② 매 5초마다 시간을 불러와서 초기시간+(5000*n)
-    과의 차가 60000(1분) 이상 날 경우
-③ 오차 값을 Outputs 포맷으로 가공하여 전송한다.
-④ [초기 시간] 변수를 변조된 시간으로 설정하여
-    다음 시간 변조를 탐지할 수 있돌고 초기화한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>① date</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[before] [after]
-(시간 포맷 : yyyy-MM-dd HH:mm:ss)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/etc/post-data</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>type = "SystemTimeChange"
-before = [before]
-after = [after]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>hosts 파일 로깅</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>hosts 변조 탐지</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>① 초기 등록된 주소를 필터링 대상으로 등록한다.
-② 매 5초마다 추가/제거된 사항을 전송한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>① fopen('/etc/hosts')</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>['ADD' | 'DEL'] [address]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>type = "HostsFileChange"
-type = ['ADD' | 'DEL']
-address = [address]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>history 파일 로깅</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>입력 커맨드 분석</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>① history</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[num] [time] [command]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>type = "CommandHistory"
-num = [num]
-time = [time]
-command = [command]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>계정 생성 탐지</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>네트워크</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>파일시스템</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>REST API 서버
-(Node JS)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>주요 로그파일 수집</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>HDCON2015 TR1
+문제5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>피해 활동 추적</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/log/post-data</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Outputs와 동일한
-필드명과 데이터명을
-작성하여 전송한다.</t>
   </si>
   <si>
     <t>① Inputs 에 명시된 로그 파일을 sudo tail -f [파일]
    명령어를 통해 지속적으로 데이터를 전송한다.
 (시스템에 해당 로그가 없을 경우, 5초마다 재 검색하여 시연 도중 생성된 것도 로깅한다.)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[path] [date] [user] [message]
-(date : yyyy-MM-dd HH:mm:ss)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>/var/log/auth.log → SSH, Telnet 로그
@@ -347,14 +255,142 @@
 /var/log/secure → SSH, Telnet 로그
 /var/log/utmp, /var/log/wtmp → 로그인 시도 로그
 /var/log/xferlog → ftp를 사용하는 데몬 관련 로그</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자 정보 로깅</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>계정 생성 탐지</t>
+  </si>
+  <si>
+    <t>[path] [date] [user] [message]
+(date : yyyy-MM-dd HH:mm:ss)</t>
+  </si>
+  <si>
+    <t>/log/post-major</t>
+  </si>
+  <si>
+    <t>Outputs와 동일한
+필드명과 데이터명을
+작성하여 전송한다.</t>
+  </si>
+  <si>
+    <t>웹 로그 수집</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HDCON2015 TR1
+문제1
+CCE 문제3 </t>
+  </si>
+  <si>
+    <t>피해 활동 추적</t>
+  </si>
+  <si>
+    <t>① 아파치, nigx 등 각종 웹 플랫폼의 서비스 여부를
+    확인 한다.
+② 서비스 중일 경우, 해당 서비스의 루트 디렉터리
+    내에서 .log 에 대한 파일을 모두 찾아 내어
+    지속적으로 데이터를 전송한다.</t>
+  </si>
+  <si>
+    <t>[time] [method] [user] [message]
+(time : yyyy-MM-dd HH:mm:ss)</t>
+  </si>
+  <si>
+    <t>/log/post-web</t>
+  </si>
+  <si>
+    <t>기타</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시스템 시간 수집</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간 변조 탐지</t>
+  </si>
+  <si>
+    <t>① 초기 시간의 밀리세컨드 값을 메모리에 저장한다.
+② 매 5초마다 시간을 불러와서 초기시간+(5000*n)
+    과의 차가 60000(1분) 이상 날 경우
+③ 오차 값을 Outputs 포맷으로 가공하여 전송한다.
+④ [초기 시간] 변수를 변조된 시간으로 설정하여
+    다음 시간 변조를 탐지할 수 있돌고 초기화한다.</t>
+  </si>
+  <si>
+    <t>① date</t>
+  </si>
+  <si>
+    <t>[before] [after]
+(시간 포맷 : yyyy-MM-dd HH:mm:ss)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/etc/post-data</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>type = "SystemTimeChange"
+data1 = [before]
+data2 = [after]</t>
+  </si>
+  <si>
+    <t>PC 정보 수집</t>
+  </si>
+  <si>
+    <t>2016 산업부 문제2</t>
+  </si>
+  <si>
+    <t>기본 정보 수집</t>
+  </si>
+  <si>
+    <t>① 최초 1회 PC정보를 수집하여 전송한다.</t>
+  </si>
+  <si>
+    <t>① cat /etc/*-release | grep DISTRIB_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>[SITRIB_DESCRIPTION]</t>
+  </si>
+  <si>
+    <t>/etc/post-data</t>
+  </si>
+  <si>
+    <t>type = "PC Info"
+data1 = [STRIB_DESCRIPTION]</t>
+  </si>
+  <si>
+    <t>hosts 파일 로깅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HDCON2015 TR2
+문제4</t>
+  </si>
+  <si>
+    <t>hosts 변조 탐지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>① 초기 등록된 주소를 필터링 대상으로 등록한다.
+② 매 5초마다 추가/제거된 사항을 전송한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>① fopen('/etc/hosts')</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>['ADD' | 'DEL'] [address]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>type = "HostsFileChange"
+data1 = ['ADD' | 'DEL']
+data2 = [address]</t>
+  </si>
+  <si>
+    <t>history 파일 로깅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력 커맨드 분석</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>① 프로그램 가동 시각 이후의 history만 로깅한다.
@@ -362,12 +398,66 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>① cat /etc/passwd</t>
+    <t>① history</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[num] [time] [command]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>type = "CommandHistory"
+data1 = [num]
+data2 = [time]
+data3 = [command]</t>
+  </si>
+  <si>
+    <t>로그인 정보 로깅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HDCON2015 TR1
+문제6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>계정 활동 탐지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>① 계정의 접속 시간대 변경이 탐지 될 때 마다
+    데이터를 전송한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">① lastlog
+</t>
+  </si>
+  <si>
+    <t>[username] [port] [address] [changeTime]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/etc/post-lastlog</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자 정보 로깅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016 산업부 문제3</t>
+  </si>
+  <si>
+    <t>계정 생성 탐지</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>① 초기 등록된 사용자를 메모리에 등록한다.
 ② 매 5초마다 변조/추가된 사항을 전송한다.</t>
+  </si>
+  <si>
+    <t>① cat /etc/passwd</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -377,6 +467,118 @@
   </si>
   <si>
     <t>/account/post-passwd</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자 접속 정보 로깅</t>
+  </si>
+  <si>
+    <t>계정 생성 탐지</t>
+  </si>
+  <si>
+    <t>① 매 5초마다 계정 상태를 전송한다.</t>
+  </si>
+  <si>
+    <t>① w</t>
+  </si>
+  <si>
+    <t>[upTime] [loginUsers] [userName] [tty] [connectFrom] [loginTime] [jcpu] [pcpu] [what]</t>
+  </si>
+  <si>
+    <t>/account/post-info</t>
+  </si>
+  <si>
+    <t>생성된 파일 로깅</t>
+  </si>
+  <si>
+    <t>2016 산업부 문제9
+2016 산업부 문제10</t>
+  </si>
+  <si>
+    <t>파일 생성 탐지</t>
+  </si>
+  <si>
+    <t>① 초기 생성되어 있는 파일 목록을 메모리에 저장한다.
+② 매 10초마다 find -type f -mtime -1 명령어를 통해 하루동안 생성된 파일 목록을 저장하고, 이미 존재하던 파일들을 뺀다.
+③ 생성된 파일 목록들에 대해 ls -l 명령어를 사용하여 생성시간, 생성 계정 등을 확인한다.</t>
+  </si>
+  <si>
+    <t>① find -type f -mtime -1 -exec ls -lrt {} \;
+    find / -ctime -1 -type f  -exec ls -lrt {} \;
+② 기존 목록에 있던 파일을 빼는 과정
+③ 새로운 파일 목록 저장하는 과정
+④ ls -l (새로운 파일 목록)</t>
+  </si>
+  <si>
+    <t>[permission] [user] [group] [size] [time] [path]</t>
+  </si>
+  <si>
+    <t>chkrootkit 결과 로깅</t>
+  </si>
+  <si>
+    <t>rootkit 탐지</t>
+  </si>
+  <si>
+    <t>① 초기 검사 결과를 메모리에 저장한다. 
+② 매 10초마다 검사하여 변동된 사항을 전송한다.
+③ 명령어 변조가 확인될 경우, /bin 하위 디렉토리에서 해당 명령어 파일의 수정 시각을 함께 전송한다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">① sudo ./chkrootkit
+② (변조가 있을 경우) date -r /bin/"변조된 명령어"
+ </t>
+  </si>
+  <si>
+    <t>[commandName] [modifiedTime]</t>
+  </si>
+  <si>
+    <t>/etc/post-chkrootkit</t>
+  </si>
+  <si>
+    <t>crontab 등록 파일 로깅</t>
+  </si>
+  <si>
+    <t>공격 유지 행위 탐지</t>
+  </si>
+  <si>
+    <t>① 초기에 /etc/cron.d 디렉토리 하위에 있는 파일 목록을 메모리에 저장한다.
+② 5초마다 검사하여 변동된 사항을 전송한다.
+③ 새로 생겼을 경우, 생성된 파일을 API 서버에 전송한다.</t>
+  </si>
+  <si>
+    <t>① ls /etc/cron.d</t>
+  </si>
+  <si>
+    <t>암호화</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>도청 방지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>① API 서버로 보내는 모든 통신은 암호화 시킨다.</t>
+  </si>
+  <si>
+    <t>① 데이터를 json 형식으로 정렬한다.
+② json을 text화 시킨 다음, utf-8로 인코딩
+    하여 한글(2바이트)를 1바이트로 쪼개
+    암호화 시 에러를 방지한다.
+③ 미리 정해 둔 키 값으로
+    AES 혹은 RSA 암호화 시킨다.</t>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 프로그램
+(pyinstaller로
+추출시킨 py)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>네트워크</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -410,132 +612,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>복제 전송</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>포트 개방</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>추가 침투 경로 확보</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>① 포트를 1초에 1개씩 개방한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>① sudo iptables -I INPUT 1 -p tcp --dport 12345 -j ACCEPT
-② sudo iptables -I INPUT 2 -p udp --dport 12345 -j ACCEPT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>로깅</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격 로그 기록</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>① 모든 공격 시도 시 공격 로그를 남긴다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/attack/post-data</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[type] [time] ['SUCCESS' | 'FAILED'] [message]
-(time : yyyy-MM-dd HH:mm:ss)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>로깅 데이터 탈취</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>① MySQL 사용 여부를 확인한다.
-② MySQL 접속 브루트포스를 진행한다.
-③ 접속에 성공할 경우, 사용자로 인해 추가된
-    스키마 및 테이블을 찾아 데이터를 탈취한다.
-    (DELETE는 하지말것)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>① python에 mysql라이브러리를 부착한다.
-② 무작위 로그인 대입을 실시한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[schema] [table] [dataStream]
-(dataStream : column1:::column2:::….:::columnN)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/attack/post-db</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>파일 생성</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>① 로그 파일을 생성하여 혼선을 준다.
-    (기존 로그파일 덮어쓰기 금지)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>① 로깅 양식과 동일하게 진짜같은 가짜
-    로그파일을 1000개 생성한다.
-② 생성 위치 : /var/log/</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>시스템 자원 낭비</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>목적</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>① 쓸데없는 연산작업을 8스레드로 10초 마다 반복수행 시킨다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>① while(start) { a = 987654231/4 + a }</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>성능저하로 인한
-로그 전송 시간
-불 일치</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>암호화</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>가짜 파일 암호화</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>① 가짜 로그 파일을 /var/log 아래 생성한다.
-② 생성한 가짜 로그파일을 암호화 시킨다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>① 암호화에 사용할 py 스크립트를 /var/log
-    에 저장한다.
-② 가짜 로그파일 생성 이후, 암호화 시킨다.
-(암호화에 사용된 py 스크립트는 삭제 X)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -550,13 +627,30 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>[IP]/attack/post-data</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>[type] [time] ['SUCCESS' | 'FAILED'] [message]
 (time : yyyy-MM-dd HH:mm:ss)
 (C&amp;C 이외엔 모두 임의 값으로 채워 보내기)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[IP]/attack/post-data</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>포트 개방</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>추가 침투 경로 확보</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>① 포트를 1초에 1개씩 개방한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>① sudo iptables -I INPUT 1 -p tcp --dport 12345 -j ACCEPT
+② sudo iptables -I INPUT 2 -p udp --dport 12345 -j ACCEPT</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -574,11 +668,21 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>자폭</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>추적 단서 제거</t>
+    <t>시스템 자원 낭비</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>성능저하로 인한
+로그 전송 시간
+불 일치</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>① 쓸데없는 연산작업을 8스레드로 10초 마다 반복수행 시킨다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>① while(start) { a = 987654231/4 + a }</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -586,8 +690,8 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>실시간 대응 회피공격</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>실시간 대응
+회피공격</t>
   </si>
   <si>
     <t>① pstree -a 명령을 통해 대응 모듈에서 수집했던
@@ -602,6 +706,49 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>파일시스템</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일 생성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>① 로그 파일을 생성하여 혼선을 준다.
+    (기존 로그파일 덮어쓰기 금지)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>① 로깅 양식과 동일하게 진짜같은 가짜
+    로그파일을 1000개 생성한다.
+② 생성 위치 : /var/log/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>가짜 파일 암호화</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>① 가짜 로그 파일을 /var/log 아래 생성한다.
+② 생성한 가짜 로그파일을 암호화 시킨다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>① 암호화에 사용할 py 스크립트를 /var/log
+    에 저장한다.
+② 가짜 로그파일 생성 이후, 암호화 시킨다.
+(암호화에 사용된 py 스크립트는 삭제 X)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>자폭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>추적 단서 제거</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>① 매 초 Github.io페이지에 등록된 자폭 여부
     플래그를 확인한다.
 ② 자폭 플래그가 1일 경우, 지금까지 생성했던
@@ -610,27 +757,54 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>사용자 접속 정보 로깅</t>
-  </si>
-  <si>
-    <t>① 매 5초마다 계정 상태를 전송한다.</t>
-  </si>
-  <si>
-    <t>① w</t>
-  </si>
-  <si>
-    <t>[upTime] [loginUsers] [userName] [tty] [connectFrom] [loginTime] [jcpu] [pcpu] [what]</t>
-  </si>
-  <si>
-    <t>/account/post-info</t>
-  </si>
-  <si>
-    <t>도청 방지</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>① API 서버로 보내는 모든 통신은 암호화 시킨다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>로깅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 로그 기록</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>① 모든 공격 시도 시 공격 로그를 남긴다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[type] [time] ['SUCCESS' | 'FAILED'] [message]
+(time : yyyy-MM-dd HH:mm:ss)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/attack/post-data</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>로깅 데이터 탈취</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>① MySQL 사용 여부를 확인한다.
+② MySQL 접속 브루트포스를 진행한다.
+③ 접속에 성공할 경우, 사용자로 인해 추가된
+    스키마 및 테이블을 찾아 데이터를 탈취한다.
+    (DELETE는 하지말것)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>① python에 mysql라이브러리를 부착한다.
+② 무작위 로그인 대입을 실시한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[schema] [table] [dataStream]
+(dataStream : column1:::column2:::….:::columnN)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/attack/post-db</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>① C&amp;C 서버로 보내는 모든 통신은 암호화 시킨다.</t>
   </si>
   <si>
     <t>① 데이터를 json 형식으로 정렬한다.
@@ -642,39 +816,99 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>① C&amp;C 서버로 보내는 모든 통신은 암호화 시킨다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>대응 프로그램
-(pyinstaller로
-추출시킨 py)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격 프로그램
-(pyinstaller로
-추출시킨 py)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[time] [proto] [refCnt] [type] [state]
-[iNode] [pid] [programName] [path]
-(time : yyyy-MM-dd HH:mm:ss)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[time] [proto] [localAddress] [foreignAddress]
-[state] [pid] [programName] [timer]
-(time : yyyy-MM-dd HH:mm:ss)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>REST API 서버
+(자동 분석)
+(Node JS)</t>
+  </si>
+  <si>
+    <t>POST 패킷 GREP</t>
+  </si>
+  <si>
+    <t>AhnLab Low 문제1</t>
+  </si>
+  <si>
+    <t>악의적 패킷 분석</t>
+  </si>
+  <si>
+    <t>① 입력한 시간 대역 사이의 모든 POST 패킷을 모아
+    모든 컬럼을 보여준다.</t>
+  </si>
+  <si>
+    <t>[시작 시간] [종료 시간]
+[POST/GET 여부] &lt;최소 패킷 크기&gt;</t>
+  </si>
+  <si>
+    <t>SELECT * FROM WebLogs WHERE time &gt; ? AND
+time &lt; ? AND method = ? AND size &gt; ?</t>
+  </si>
+  <si>
+    <t>쿼리 결과를 보여준다.</t>
+  </si>
+  <si>
+    <t>원격 접속로그 분석</t>
+  </si>
+  <si>
+    <t>AhnLab Low 문제3</t>
+  </si>
+  <si>
+    <t>악의적 접속 분석</t>
+  </si>
+  <si>
+    <t>① 입력한 시간 대역 사이의 모든 접속 로그를 모아
+    보여준다.</t>
+  </si>
+  <si>
+    <t>[시작 시간] [종료 시간] [포트]</t>
+  </si>
+  <si>
+    <t>SELECT * FROM LastLog WHERE time &gt; ? AND
+time &lt; ? AND port = ?
+나온 결과 값을 InternetConnection 테이블에 다시
+넣어 실행된 프로세스 PID, 이름 가져오기</t>
+  </si>
+  <si>
+    <t>추가된 커넥션 확인</t>
+  </si>
+  <si>
+    <t>2016 산업부 문제8</t>
+  </si>
+  <si>
+    <t>악의 접속 분석</t>
+  </si>
+  <si>
+    <t>① 입력한 시간 대역 사이의 모든 연결 로그를 모아
+    보여준다.</t>
+  </si>
+  <si>
+    <t>SELECT * FROM SocketConnection WHERE time &gt; ? AND time &lt; ? AND port = ?</t>
+  </si>
+  <si>
+    <t>IP 필터링</t>
+  </si>
+  <si>
+    <t>2016 산업부 문제5
+2016 산업부 문제6</t>
+  </si>
+  <si>
+    <t>접근 횟수 분석</t>
+  </si>
+  <si>
+    <t>① 입력 한 시간대의 가장 많이 접근했던  IP를
+    출력한다.</t>
+  </si>
+  <si>
+    <t>[시작 시간] [종료 시간] &lt;포트&gt;</t>
+  </si>
+  <si>
+    <t>SELECT sourceIp, COUNT(sourceIp) as ipCount FROM PacketTraffic WHERE time &gt; ? AND
+time &lt; ? AND destPort = ? ORDER BY ipCount</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1070,7 +1304,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1080,9 +1314,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1152,9 +1383,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1212,9 +1440,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1239,6 +1464,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1251,23 +1491,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1329,35 +1584,17 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1383,14 +1620,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>2662518</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>133010</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1233768</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>142535</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1433,7 +1670,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1729,26 +1966,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B20606A0-8F97-42D7-B07E-C96D54E662E5}">
-  <dimension ref="A1:J40"/>
+  <dimension ref="A1:K45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="F13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="2" width="15.19921875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.3984375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.59765625" customWidth="1"/>
-    <col min="5" max="5" width="17.8984375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="45" customWidth="1"/>
-    <col min="7" max="7" width="38.59765625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="45" style="1" customWidth="1"/>
-    <col min="9" max="9" width="20.5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="30.69921875" style="1" customWidth="1"/>
+    <col min="1" max="2" width="15.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.625" customWidth="1"/>
+    <col min="6" max="6" width="17.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="45" customWidth="1"/>
+    <col min="8" max="8" width="38.625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="45" style="1" customWidth="1"/>
+    <col min="10" max="10" width="20.5" style="1" customWidth="1"/>
+    <col min="11" max="11" width="30.75" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1762,857 +2000,1119 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="82.5">
+      <c r="A2" s="74" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="72" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="9"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="37" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="49.5">
+      <c r="A3" s="75"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="65" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="57"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="67" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="67" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="63" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="49.5">
+      <c r="A4" s="76"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="60" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="64"/>
+    </row>
+    <row r="5" spans="1:11" ht="66">
+      <c r="A5" s="76"/>
+      <c r="B5" s="71"/>
+      <c r="C5" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="K5" s="39" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="82.5">
+      <c r="A6" s="76"/>
+      <c r="B6" s="62" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="17"/>
+      <c r="F6" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="42"/>
+      <c r="I6" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="J6" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="K6" s="36" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="214.5">
+      <c r="A7" s="76"/>
+      <c r="B7" s="70" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="17"/>
+      <c r="F7" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="I7" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="J7" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="K7" s="36" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="115.5">
+      <c r="A8" s="76"/>
+      <c r="B8" s="71"/>
+      <c r="C8" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="15"/>
+      <c r="F8" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="H8" s="41"/>
+      <c r="I8" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="J8" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="K8" s="39" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="181.5">
+      <c r="A9" s="76"/>
+      <c r="B9" s="69" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="60" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="60"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="60" t="s">
+        <v>60</v>
+      </c>
+      <c r="G9" s="61" t="s">
+        <v>61</v>
+      </c>
+      <c r="H9" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="I9" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="J9" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="K9" s="59" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="33">
+      <c r="A10" s="76"/>
+      <c r="B10" s="69"/>
+      <c r="C10" s="60" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="60" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="13"/>
+      <c r="F10" s="60" t="s">
+        <v>68</v>
+      </c>
+      <c r="G10" s="61" t="s">
+        <v>69</v>
+      </c>
+      <c r="H10" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="I10" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="J10" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="K10" s="59" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="49.5">
+      <c r="A11" s="76"/>
+      <c r="B11" s="69"/>
+      <c r="C11" s="60" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" s="13"/>
+      <c r="F11" s="60" t="s">
+        <v>76</v>
+      </c>
+      <c r="G11" s="61" t="s">
+        <v>77</v>
+      </c>
+      <c r="H11" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="I11" s="60" t="s">
+        <v>79</v>
+      </c>
+      <c r="J11" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="K11" s="59" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="66">
+      <c r="A12" s="76"/>
+      <c r="B12" s="69"/>
+      <c r="C12" s="57" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="57"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="57" t="s">
+        <v>82</v>
+      </c>
+      <c r="G12" s="61" t="s">
+        <v>83</v>
+      </c>
+      <c r="H12" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="I12" s="57" t="s">
+        <v>85</v>
+      </c>
+      <c r="J12" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="K12" s="59" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="49.5">
+      <c r="A13" s="76"/>
+      <c r="B13" s="69"/>
+      <c r="C13" s="57" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13" s="52" t="s">
+        <v>88</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="57" t="s">
+        <v>89</v>
+      </c>
+      <c r="G13" s="51" t="s">
+        <v>90</v>
+      </c>
+      <c r="H13" s="51" t="s">
+        <v>91</v>
+      </c>
+      <c r="I13" s="57" t="s">
+        <v>92</v>
+      </c>
+      <c r="J13" s="52" t="s">
+        <v>93</v>
+      </c>
+      <c r="K13" s="58" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="49.5">
+      <c r="A14" s="76"/>
+      <c r="B14" s="69"/>
+      <c r="C14" s="57" t="s">
+        <v>94</v>
+      </c>
+      <c r="D14" s="52" t="s">
+        <v>95</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="57" t="s">
+        <v>96</v>
+      </c>
+      <c r="G14" s="51" t="s">
+        <v>97</v>
+      </c>
+      <c r="H14" s="51" t="s">
+        <v>98</v>
+      </c>
+      <c r="I14" s="52" t="s">
+        <v>99</v>
+      </c>
+      <c r="J14" s="52" t="s">
+        <v>100</v>
+      </c>
+      <c r="K14" s="58" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="49.5">
+      <c r="A15" s="76"/>
+      <c r="B15" s="69"/>
+      <c r="C15" s="57" t="s">
         <v>101</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="69.599999999999994" x14ac:dyDescent="0.4">
-      <c r="A2" s="67" t="s">
+      <c r="D15" s="52"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="57" t="s">
+        <v>102</v>
+      </c>
+      <c r="G15" s="51" t="s">
+        <v>103</v>
+      </c>
+      <c r="H15" s="51" t="s">
+        <v>104</v>
+      </c>
+      <c r="I15" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="J15" s="52" t="s">
+        <v>106</v>
+      </c>
+      <c r="K15" s="58" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="115.5">
+      <c r="A16" s="76"/>
+      <c r="B16" s="69"/>
+      <c r="C16" s="57" t="s">
+        <v>107</v>
+      </c>
+      <c r="D16" s="52" t="s">
+        <v>108</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="G16" s="51" t="s">
+        <v>110</v>
+      </c>
+      <c r="H16" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="I16" s="52" t="s">
+        <v>112</v>
+      </c>
+      <c r="J16" s="52"/>
+      <c r="K16" s="58" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="99.75" customHeight="1">
+      <c r="A17" s="76"/>
+      <c r="B17" s="69"/>
+      <c r="C17" s="57" t="s">
+        <v>113</v>
+      </c>
+      <c r="D17" s="57"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="57" t="s">
+        <v>114</v>
+      </c>
+      <c r="G17" s="51" t="s">
+        <v>115</v>
+      </c>
+      <c r="H17" s="51" t="s">
+        <v>116</v>
+      </c>
+      <c r="I17" s="52" t="s">
+        <v>117</v>
+      </c>
+      <c r="J17" s="52" t="s">
+        <v>118</v>
+      </c>
+      <c r="K17" s="58"/>
+    </row>
+    <row r="18" spans="1:11" ht="99.75" customHeight="1">
+      <c r="A18" s="76"/>
+      <c r="B18" s="69"/>
+      <c r="C18" s="57" t="s">
+        <v>119</v>
+      </c>
+      <c r="D18" s="57"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="57" t="s">
+        <v>120</v>
+      </c>
+      <c r="G18" s="51" t="s">
+        <v>121</v>
+      </c>
+      <c r="H18" s="51" t="s">
+        <v>122</v>
+      </c>
+      <c r="I18" s="52"/>
+      <c r="J18" s="52"/>
+      <c r="K18" s="58"/>
+    </row>
+    <row r="19" spans="1:11" ht="115.5">
+      <c r="A19" s="76"/>
+      <c r="B19" s="69"/>
+      <c r="C19" s="57" t="s">
+        <v>123</v>
+      </c>
+      <c r="D19" s="57"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="57" t="s">
+        <v>124</v>
+      </c>
+      <c r="G19" s="51" t="s">
+        <v>125</v>
+      </c>
+      <c r="H19" s="51" t="s">
+        <v>126</v>
+      </c>
+      <c r="I19" s="52" t="s">
+        <v>127</v>
+      </c>
+      <c r="J19" s="52" t="s">
+        <v>127</v>
+      </c>
+      <c r="K19" s="58" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="66">
+      <c r="A20" s="90" t="s">
+        <v>128</v>
+      </c>
+      <c r="B20" s="85" t="s">
+        <v>129</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="G20" s="53" t="s">
         <v>131</v>
       </c>
-      <c r="B2" s="95" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="42" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="39" t="s">
+      <c r="H20" s="53" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="A3" s="68"/>
-      <c r="B3" s="92"/>
-      <c r="C3" s="88" t="s">
+      <c r="I20" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="58" t="s">
+      <c r="J20" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="90" t="s">
+      <c r="K20" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="90" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="35" t="s">
+    </row>
+    <row r="21" spans="1:11" ht="82.5">
+      <c r="A21" s="91"/>
+      <c r="B21" s="86"/>
+      <c r="C21" s="73" t="s">
+        <v>132</v>
+      </c>
+      <c r="D21" s="57"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="73" t="s">
+        <v>133</v>
+      </c>
+      <c r="G21" s="51" t="s">
         <v>134</v>
       </c>
-      <c r="I3" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" s="86" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="A4" s="69"/>
-      <c r="B4" s="92"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="91"/>
-      <c r="G4" s="91"/>
-      <c r="H4" s="53" t="s">
+      <c r="H21" s="51" t="s">
+        <v>135</v>
+      </c>
+      <c r="I21" s="57" t="s">
+        <v>127</v>
+      </c>
+      <c r="J21" s="57" t="s">
+        <v>136</v>
+      </c>
+      <c r="K21" s="28" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="49.5">
+      <c r="A22" s="91"/>
+      <c r="B22" s="86"/>
+      <c r="C22" s="73"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="73"/>
+      <c r="G22" s="51" t="s">
+        <v>137</v>
+      </c>
+      <c r="H22" s="51" t="s">
+        <v>138</v>
+      </c>
+      <c r="I22" s="52" t="s">
+        <v>139</v>
+      </c>
+      <c r="J22" s="57" t="s">
+        <v>140</v>
+      </c>
+      <c r="K22" s="58" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="66">
+      <c r="A23" s="91"/>
+      <c r="B23" s="87"/>
+      <c r="C23" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="D23" s="18"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="G23" s="46" t="s">
+        <v>143</v>
+      </c>
+      <c r="H23" s="56" t="s">
+        <v>144</v>
+      </c>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="29"/>
+    </row>
+    <row r="24" spans="1:11" ht="132">
+      <c r="A24" s="91"/>
+      <c r="B24" s="88" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="D24" s="20"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="I4" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" s="87"/>
-    </row>
-    <row r="5" spans="1:10" ht="52.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="69"/>
-      <c r="B5" s="94"/>
-      <c r="C5" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="43" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" s="45" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="J5" s="41" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="70.2" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="69"/>
-      <c r="B6" s="61" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="18"/>
-      <c r="E6" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" s="44" t="s">
-        <v>34</v>
-      </c>
-      <c r="H6" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="I6" s="35" t="s">
+      <c r="G24" s="55" t="s">
+        <v>146</v>
+      </c>
+      <c r="H24" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="I24" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="J24" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="K24" s="30" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="49.5">
+      <c r="A25" s="91"/>
+      <c r="B25" s="86"/>
+      <c r="C25" s="57" t="s">
+        <v>147</v>
+      </c>
+      <c r="D25" s="57"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="52" t="s">
+        <v>148</v>
+      </c>
+      <c r="G25" s="51" t="s">
+        <v>149</v>
+      </c>
+      <c r="H25" s="51" t="s">
+        <v>150</v>
+      </c>
+      <c r="I25" s="52" t="s">
+        <v>127</v>
+      </c>
+      <c r="J25" s="57" t="s">
+        <v>127</v>
+      </c>
+      <c r="K25" s="58" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="148.5">
+      <c r="A26" s="91"/>
+      <c r="B26" s="87"/>
+      <c r="C26" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="D26" s="18"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="93" t="s">
+        <v>152</v>
+      </c>
+      <c r="G26" s="56" t="s">
+        <v>153</v>
+      </c>
+      <c r="H26" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="I26" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="J26" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="K26" s="29" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="49.5">
+      <c r="A27" s="91"/>
+      <c r="B27" s="88" t="s">
+        <v>155</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="D27" s="20"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="G27" s="55" t="s">
+        <v>157</v>
+      </c>
+      <c r="H27" s="55" t="s">
+        <v>158</v>
+      </c>
+      <c r="I27" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="J27" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="K27" s="30" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="99">
+      <c r="A28" s="91"/>
+      <c r="B28" s="86"/>
+      <c r="C28" s="57" t="s">
+        <v>159</v>
+      </c>
+      <c r="D28" s="57"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="57" t="s">
+        <v>133</v>
+      </c>
+      <c r="G28" s="51" t="s">
+        <v>160</v>
+      </c>
+      <c r="H28" s="51" t="s">
+        <v>161</v>
+      </c>
+      <c r="I28" s="57" t="s">
+        <v>127</v>
+      </c>
+      <c r="J28" s="57" t="s">
+        <v>127</v>
+      </c>
+      <c r="K28" s="28" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="99">
+      <c r="A29" s="91"/>
+      <c r="B29" s="87"/>
+      <c r="C29" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="D29" s="18"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="G29" s="56" t="s">
+        <v>164</v>
+      </c>
+      <c r="H29" s="46" t="s">
+        <v>127</v>
+      </c>
+      <c r="I29" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="J29" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="K29" s="29" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="49.5">
+      <c r="A30" s="91"/>
+      <c r="B30" s="86" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" s="57" t="s">
+        <v>165</v>
+      </c>
+      <c r="D30" s="57"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="57" t="s">
+        <v>166</v>
+      </c>
+      <c r="G30" s="45" t="s">
+        <v>167</v>
+      </c>
+      <c r="H30" s="45"/>
+      <c r="I30" s="52" t="s">
+        <v>168</v>
+      </c>
+      <c r="J30" s="57" t="s">
+        <v>169</v>
+      </c>
+      <c r="K30" s="58" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="99">
+      <c r="A31" s="91"/>
+      <c r="B31" s="86"/>
+      <c r="C31" s="57" t="s">
+        <v>170</v>
+      </c>
+      <c r="D31" s="57"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="57" t="s">
+        <v>130</v>
+      </c>
+      <c r="G31" s="51" t="s">
+        <v>171</v>
+      </c>
+      <c r="H31" s="51" t="s">
+        <v>172</v>
+      </c>
+      <c r="I31" s="52" t="s">
+        <v>173</v>
+      </c>
+      <c r="J31" s="57" t="s">
+        <v>174</v>
+      </c>
+      <c r="K31" s="58" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="115.5">
+      <c r="A32" s="92"/>
+      <c r="B32" s="89"/>
+      <c r="C32" s="57" t="s">
+        <v>123</v>
+      </c>
+      <c r="D32" s="57"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="57" t="s">
+        <v>124</v>
+      </c>
+      <c r="G32" s="51" t="s">
+        <v>175</v>
+      </c>
+      <c r="H32" s="51" t="s">
+        <v>176</v>
+      </c>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="26"/>
+    </row>
+    <row r="33" spans="1:11" ht="49.5">
+      <c r="A33" s="77" t="s">
+        <v>177</v>
+      </c>
+      <c r="B33" s="80" t="s">
+        <v>129</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="E33" s="7"/>
+      <c r="F33" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="G33" s="53" t="s">
+        <v>181</v>
+      </c>
+      <c r="H33" s="94" t="s">
+        <v>182</v>
+      </c>
+      <c r="I33" s="94" t="s">
+        <v>183</v>
+      </c>
+      <c r="J33" s="6"/>
+      <c r="K33" s="27" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="99">
+      <c r="A34" s="78"/>
+      <c r="B34" s="81"/>
+      <c r="C34" s="57" t="s">
+        <v>185</v>
+      </c>
+      <c r="D34" s="57" t="s">
+        <v>186</v>
+      </c>
+      <c r="E34" s="3"/>
+      <c r="F34" s="57" t="s">
+        <v>187</v>
+      </c>
+      <c r="G34" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="H34" s="57" t="s">
+        <v>189</v>
+      </c>
+      <c r="I34" s="52" t="s">
+        <v>190</v>
+      </c>
+      <c r="J34" s="57"/>
+      <c r="K34" s="28" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="49.5">
+      <c r="A35" s="78"/>
+      <c r="B35" s="81"/>
+      <c r="C35" s="57" t="s">
+        <v>191</v>
+      </c>
+      <c r="D35" s="57" t="s">
+        <v>192</v>
+      </c>
+      <c r="E35" s="3"/>
+      <c r="F35" s="57" t="s">
+        <v>193</v>
+      </c>
+      <c r="G35" s="51" t="s">
+        <v>194</v>
+      </c>
+      <c r="H35" s="57" t="s">
+        <v>189</v>
+      </c>
+      <c r="I35" s="52" t="s">
+        <v>195</v>
+      </c>
+      <c r="J35" s="57"/>
+      <c r="K35" s="28" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="66">
+      <c r="A36" s="78"/>
+      <c r="B36" s="82"/>
+      <c r="C36" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="D36" s="96" t="s">
+        <v>197</v>
+      </c>
+      <c r="E36" s="23"/>
+      <c r="F36" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="G36" s="95" t="s">
+        <v>199</v>
+      </c>
+      <c r="H36" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="I36" s="96" t="s">
+        <v>201</v>
+      </c>
+      <c r="J36" s="22"/>
+      <c r="K36" s="31" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="78"/>
+      <c r="B37" s="83" t="s">
         <v>36</v>
       </c>
-      <c r="J6" s="38" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="208.8" x14ac:dyDescent="0.4">
-      <c r="A7" s="69"/>
-      <c r="B7" s="93" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="D7" s="18"/>
-      <c r="E7" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="F7" s="44" t="s">
-        <v>65</v>
-      </c>
-      <c r="G7" s="44" t="s">
-        <v>67</v>
-      </c>
-      <c r="H7" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="I7" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="J7" s="38" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="69"/>
-      <c r="B8" s="94"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="27"/>
-    </row>
-    <row r="9" spans="1:10" ht="104.4" x14ac:dyDescent="0.4">
-      <c r="A9" s="69"/>
-      <c r="B9" s="92" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="58" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="58" t="s">
-        <v>40</v>
-      </c>
-      <c r="F9" s="59" t="s">
-        <v>41</v>
-      </c>
-      <c r="G9" s="52" t="s">
-        <v>42</v>
-      </c>
-      <c r="H9" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="I9" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="J9" s="57" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="A10" s="69"/>
-      <c r="B10" s="92"/>
-      <c r="C10" s="58" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="58" t="s">
-        <v>47</v>
-      </c>
-      <c r="F10" s="59" t="s">
-        <v>48</v>
-      </c>
-      <c r="G10" s="52" t="s">
-        <v>49</v>
-      </c>
-      <c r="H10" s="58" t="s">
-        <v>50</v>
-      </c>
-      <c r="I10" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="J10" s="57" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="69.599999999999994" x14ac:dyDescent="0.4">
-      <c r="A11" s="69"/>
-      <c r="B11" s="92"/>
-      <c r="C11" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F11" s="59" t="s">
-        <v>70</v>
-      </c>
-      <c r="G11" s="48" t="s">
-        <v>54</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="I11" s="55" t="s">
-        <v>44</v>
-      </c>
-      <c r="J11" s="57" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="A12" s="69"/>
-      <c r="B12" s="92"/>
-      <c r="C12" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="F12" s="54" t="s">
-        <v>72</v>
-      </c>
-      <c r="G12" s="54" t="s">
-        <v>71</v>
-      </c>
-      <c r="H12" s="55" t="s">
-        <v>73</v>
-      </c>
-      <c r="I12" s="55" t="s">
-        <v>74</v>
-      </c>
-      <c r="J12" s="60" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="A13" s="69"/>
-      <c r="B13" s="92"/>
-      <c r="C13" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="F13" s="54" t="s">
-        <v>123</v>
-      </c>
-      <c r="G13" s="54" t="s">
-        <v>124</v>
-      </c>
-      <c r="H13" s="55" t="s">
-        <v>125</v>
-      </c>
-      <c r="I13" s="55" t="s">
-        <v>126</v>
-      </c>
-      <c r="J13" s="60" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="105" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="69"/>
-      <c r="B14" s="92"/>
-      <c r="C14" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="F14" s="54" t="s">
-        <v>128</v>
-      </c>
-      <c r="G14" s="54" t="s">
-        <v>129</v>
-      </c>
-      <c r="H14" s="55" t="s">
-        <v>81</v>
-      </c>
-      <c r="I14" s="55" t="s">
-        <v>81</v>
-      </c>
-      <c r="J14" s="56" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="52.8" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="83" t="s">
-        <v>132</v>
-      </c>
-      <c r="B15" s="78" t="s">
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="48"/>
+      <c r="H37" s="48"/>
+      <c r="I37" s="24"/>
+      <c r="J37" s="24"/>
+      <c r="K37" s="32"/>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="78"/>
+      <c r="B38" s="81"/>
+      <c r="C38" s="57"/>
+      <c r="D38" s="57"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="57"/>
+      <c r="G38" s="45"/>
+      <c r="H38" s="45"/>
+      <c r="I38" s="57"/>
+      <c r="J38" s="57"/>
+      <c r="K38" s="28"/>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="78"/>
+      <c r="B39" s="82"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="23"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="47"/>
+      <c r="H39" s="47"/>
+      <c r="I39" s="22"/>
+      <c r="J39" s="22"/>
+      <c r="K39" s="31"/>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="78"/>
+      <c r="B40" s="83" t="s">
+        <v>155</v>
+      </c>
+      <c r="C40" s="24"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="48"/>
+      <c r="H40" s="48"/>
+      <c r="I40" s="24"/>
+      <c r="J40" s="24"/>
+      <c r="K40" s="32"/>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="78"/>
+      <c r="B41" s="81"/>
+      <c r="C41" s="57"/>
+      <c r="D41" s="57"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="57"/>
+      <c r="G41" s="45"/>
+      <c r="H41" s="45"/>
+      <c r="I41" s="57"/>
+      <c r="J41" s="57"/>
+      <c r="K41" s="28"/>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="78"/>
+      <c r="B42" s="82"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="23"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="47"/>
+      <c r="H42" s="47"/>
+      <c r="I42" s="22"/>
+      <c r="J42" s="22"/>
+      <c r="K42" s="31"/>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="78"/>
+      <c r="B43" s="81" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="F15" s="62" t="s">
-        <v>76</v>
-      </c>
-      <c r="G15" s="62" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J15" s="63" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="A16" s="84"/>
-      <c r="B16" s="79"/>
-      <c r="C16" s="66" t="s">
-        <v>77</v>
-      </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="66" t="s">
-        <v>78</v>
-      </c>
-      <c r="F16" s="54" t="s">
-        <v>79</v>
-      </c>
-      <c r="G16" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="J16" s="30" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="A17" s="84"/>
-      <c r="B17" s="79"/>
-      <c r="C17" s="66"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="66"/>
-      <c r="F17" s="54" t="s">
-        <v>109</v>
-      </c>
-      <c r="G17" s="54" t="s">
-        <v>110</v>
-      </c>
-      <c r="H17" s="55" t="s">
-        <v>112</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="J17" s="60" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="70.2" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="84"/>
-      <c r="B18" s="80"/>
-      <c r="C18" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="D18" s="20"/>
-      <c r="E18" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="F18" s="49" t="s">
-        <v>85</v>
-      </c>
-      <c r="G18" s="65" t="s">
-        <v>86</v>
-      </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="31"/>
-    </row>
-    <row r="19" spans="1:10" ht="121.8" x14ac:dyDescent="0.4">
-      <c r="A19" s="84"/>
-      <c r="B19" s="81" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="D19" s="22"/>
-      <c r="E19" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="F19" s="64" t="s">
-        <v>114</v>
-      </c>
-      <c r="G19" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="H19" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="I19" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="J19" s="32" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="A20" s="84"/>
-      <c r="B20" s="79"/>
-      <c r="C20" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D20" s="4"/>
-      <c r="E20" s="55" t="s">
-        <v>104</v>
-      </c>
-      <c r="F20" s="54" t="s">
-        <v>102</v>
-      </c>
-      <c r="G20" s="54" t="s">
-        <v>103</v>
-      </c>
-      <c r="H20" s="55" t="s">
-        <v>81</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="J20" s="60" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="87.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="84"/>
-      <c r="B21" s="80"/>
-      <c r="C21" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="D21" s="20"/>
-      <c r="E21" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="F21" s="65" t="s">
-        <v>119</v>
-      </c>
-      <c r="G21" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="H21" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="I21" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="J21" s="31" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="A22" s="84"/>
-      <c r="B22" s="81" t="s">
-        <v>59</v>
-      </c>
-      <c r="C22" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="D22" s="22"/>
-      <c r="E22" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="F22" s="64" t="s">
-        <v>98</v>
-      </c>
-      <c r="G22" s="64" t="s">
-        <v>99</v>
-      </c>
-      <c r="H22" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="I22" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="J22" s="32" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="69.599999999999994" x14ac:dyDescent="0.4">
-      <c r="A23" s="84"/>
-      <c r="B23" s="79"/>
-      <c r="C23" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="D23" s="4"/>
-      <c r="E23" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="F23" s="54" t="s">
-        <v>107</v>
-      </c>
-      <c r="G23" s="54" t="s">
-        <v>108</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="J23" s="30" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="87.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="84"/>
-      <c r="B24" s="80"/>
-      <c r="C24" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="D24" s="20"/>
-      <c r="E24" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="F24" s="65" t="s">
-        <v>121</v>
-      </c>
-      <c r="G24" s="49" t="s">
-        <v>81</v>
-      </c>
-      <c r="H24" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="I24" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="J24" s="31" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="A25" s="84"/>
-      <c r="B25" s="79" t="s">
-        <v>38</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D25" s="4"/>
-      <c r="E25" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="F25" s="48" t="s">
-        <v>89</v>
-      </c>
-      <c r="G25" s="48"/>
-      <c r="H25" s="55" t="s">
-        <v>91</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="J25" s="60" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="87" x14ac:dyDescent="0.4">
-      <c r="A26" s="84"/>
-      <c r="B26" s="79"/>
-      <c r="C26" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D26" s="4"/>
-      <c r="E26" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F26" s="54" t="s">
-        <v>93</v>
-      </c>
-      <c r="G26" s="54" t="s">
-        <v>94</v>
-      </c>
-      <c r="H26" s="55" t="s">
-        <v>95</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="J26" s="60" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="105" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="85"/>
-      <c r="B27" s="82"/>
-      <c r="C27" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D27" s="4"/>
-      <c r="E27" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="F27" s="54" t="s">
-        <v>130</v>
-      </c>
-      <c r="G27" s="54" t="s">
-        <v>129</v>
-      </c>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="28"/>
-    </row>
-    <row r="28" spans="1:10" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="70" t="s">
-        <v>60</v>
-      </c>
-      <c r="B28" s="73" t="s">
-        <v>58</v>
-      </c>
-      <c r="C28" s="7"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="47"/>
-      <c r="G28" s="47"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="29"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A29" s="71"/>
-      <c r="B29" s="74"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="48"/>
-      <c r="G29" s="48"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="30"/>
-    </row>
-    <row r="30" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="71"/>
-      <c r="B30" s="75"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="50"/>
-      <c r="G30" s="50"/>
-      <c r="H30" s="23"/>
-      <c r="I30" s="23"/>
-      <c r="J30" s="33"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A31" s="71"/>
-      <c r="B31" s="76" t="s">
-        <v>30</v>
-      </c>
-      <c r="C31" s="25"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="51"/>
-      <c r="G31" s="51"/>
-      <c r="H31" s="25"/>
-      <c r="I31" s="25"/>
-      <c r="J31" s="34"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A32" s="71"/>
-      <c r="B32" s="74"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="48"/>
-      <c r="G32" s="48"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="30"/>
-    </row>
-    <row r="33" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="71"/>
-      <c r="B33" s="75"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="50"/>
-      <c r="G33" s="50"/>
-      <c r="H33" s="23"/>
-      <c r="I33" s="23"/>
-      <c r="J33" s="33"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A34" s="71"/>
-      <c r="B34" s="76" t="s">
-        <v>59</v>
-      </c>
-      <c r="C34" s="25"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="51"/>
-      <c r="G34" s="51"/>
-      <c r="H34" s="25"/>
-      <c r="I34" s="25"/>
-      <c r="J34" s="34"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A35" s="71"/>
-      <c r="B35" s="74"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="48"/>
-      <c r="G35" s="48"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="30"/>
-    </row>
-    <row r="36" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="71"/>
-      <c r="B36" s="75"/>
-      <c r="C36" s="23"/>
-      <c r="D36" s="24"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="50"/>
-      <c r="G36" s="50"/>
-      <c r="H36" s="23"/>
-      <c r="I36" s="23"/>
-      <c r="J36" s="33"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A37" s="71"/>
-      <c r="B37" s="74" t="s">
-        <v>38</v>
-      </c>
-      <c r="C37" s="3"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="48"/>
-      <c r="G37" s="48"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="30"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A38" s="71"/>
-      <c r="B38" s="74"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="48"/>
-      <c r="G38" s="48"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="30"/>
-    </row>
-    <row r="39" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="72"/>
-      <c r="B39" s="77"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="46"/>
-      <c r="G39" s="46"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="28"/>
-    </row>
-    <row r="40" spans="1:10" ht="18" thickTop="1" x14ac:dyDescent="0.4"/>
+      <c r="C43" s="57"/>
+      <c r="D43" s="57"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="57"/>
+      <c r="G43" s="45"/>
+      <c r="H43" s="45"/>
+      <c r="I43" s="57"/>
+      <c r="J43" s="57"/>
+      <c r="K43" s="28"/>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="78"/>
+      <c r="B44" s="81"/>
+      <c r="C44" s="57"/>
+      <c r="D44" s="57"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="57"/>
+      <c r="G44" s="45"/>
+      <c r="H44" s="45"/>
+      <c r="I44" s="57"/>
+      <c r="J44" s="57"/>
+      <c r="K44" s="28"/>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="79"/>
+      <c r="B45" s="84"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="44"/>
+      <c r="H45" s="44"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="26"/>
+    </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="A2:A19"/>
+    <mergeCell ref="A33:A45"/>
+    <mergeCell ref="B33:B36"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="A20:A32"/>
+    <mergeCell ref="K3:K4"/>
     <mergeCell ref="C3:C4"/>
-    <mergeCell ref="F3:F4"/>
     <mergeCell ref="G3:G4"/>
-    <mergeCell ref="B9:B14"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="B9:B19"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="A2:A14"/>
-    <mergeCell ref="A28:A39"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="A15:A27"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/김종민_실시간 대응/WBS.xlsx
+++ b/김종민_실시간 대응/WBS.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://o365ysu-my.sharepoint.com/personal/10141314_office_ysu_ac_kr/Documents/BoB 실시간 공격 방어/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dnwnd\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA643D2A-66AF-4C13-9E2B-DE1ADB3BFA86}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66C21B4A-FA22-483D-821C-B8EB7AD291D9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{35B256A6-5A4A-4D0F-80DD-C9C50C59A13C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="208">
   <si>
     <t>프로그램</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -92,6 +92,9 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>김태룡</t>
+  </si>
+  <si>
     <t>C&amp;C 서버 추적</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -104,15 +107,12 @@
   <si>
     <t>① sudo suricata -s rule.rules -i eth0
 ② sudo tail -f /var/log/suricata/fast.log</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>[time] [srcIP] [srcPort] [dstIP] [dstPort] [data]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>/network/post-packet</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Outputs와 동일한
@@ -136,7 +136,6 @@
   </si>
   <si>
     <t>① netstat -naop</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>[time] [proto] [localAddress] [foreignAddress]
@@ -181,16 +180,14 @@
   </si>
   <si>
     <t>① arp</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[address] [hwType]
-[hwAddress] [flagMask] [interface]</t>
+  </si>
+  <si>
+    <t>[address] [hardwareType]
+[hardwareAddress] [interface]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>/network/post-arp</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>프로세스</t>
@@ -198,12 +195,10 @@
   </si>
   <si>
     <t>프로세스 동작 상태 수집</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>AhnLab Low 문제2
 CCE 문제9</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>악성 프로세스 추적</t>
@@ -216,6 +211,12 @@
    정보로 통합 시키고 Outputs 형태로 출력</t>
   </si>
   <si>
+    <t>① ps -aux
+② pstree -a
+③ lsmod
+④ ps -eaf</t>
+  </si>
+  <si>
     <t>[name] [uid] [pid] [ppid] [childName]
 [stime] [size] [used] [by] [cmd]</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -247,7 +248,9 @@
 (시스템에 해당 로그가 없을 경우, 5초마다 재 검색하여 시연 도중 생성된 것도 로깅한다.)</t>
   </si>
   <si>
-    <t>/var/log/auth.log → SSH, Telnet 로그
+    <t>① sudo cat [로그 목록]
+[로그목록]
+/var/log/auth.log → SSH, Telnet 로그
 /var/log/cron → crontab 관련 로그
 /var/log/secure → 접속관련 timestamp, 호스트명, pid
 /var/log/xferlog → ftp를 사용하는 데몬 관련 로그
@@ -287,6 +290,11 @@
     지속적으로 데이터를 전송한다.</t>
   </si>
   <si>
+    <t xml:space="preserve">① sudo find / -name 'access.log' -type f -exec ls -l {} \; 
+② sudo cat [맨 마지막 경로 부분]
+</t>
+  </si>
+  <si>
     <t>[time] [method] [user] [message]
 (time : yyyy-MM-dd HH:mm:ss)</t>
   </si>
@@ -300,6 +308,9 @@
   <si>
     <t>시스템 시간 수집</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>조서연</t>
   </si>
   <si>
     <t>시간 변조 탐지</t>
@@ -316,18 +327,15 @@
     <t>① date</t>
   </si>
   <si>
-    <t>[before] [after]
+    <t>[changedTime]
 (시간 포맷 : yyyy-MM-dd HH:mm:ss)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/etc/post-data</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/system/post-time</t>
   </si>
   <si>
     <t>type = "SystemTimeChange"
-data1 = [before]
-data2 = [after]</t>
+data1 = [changedTime]</t>
   </si>
   <si>
     <t>PC 정보 수집</t>
@@ -348,14 +356,14 @@
     <t>[SITRIB_DESCRIPTION]</t>
   </si>
   <si>
-    <t>/etc/post-data</t>
+    <t>/system/post-info</t>
   </si>
   <si>
     <t>type = "PC Info"
 data1 = [STRIB_DESCRIPTION]</t>
   </si>
   <si>
-    <t>hosts 파일 로깅</t>
+    <t>HOSTS 파일 검사</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -378,6 +386,9 @@
   <si>
     <t>['ADD' | 'DEL'] [address]</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/system/post-hosts</t>
   </si>
   <si>
     <t>type = "HostsFileChange"
@@ -395,30 +406,22 @@
   <si>
     <t>① 프로그램 가동 시각 이후의 history만 로깅한다.
 ② 매 1초마다 추가된 사항을 전송한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>① history</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>[num] [time] [command]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>type = "CommandHistory"
-data1 = [num]
-data2 = [time]
-data3 = [command]</t>
+  </si>
+  <si>
+    <t>/system/post-history</t>
   </si>
   <si>
     <t>로그인 정보 로깅</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>HDCON2015 TR1
 문제6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>계정 활동 탐지</t>
@@ -435,15 +438,12 @@
   </si>
   <si>
     <t>[username] [port] [address] [changeTime]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/etc/post-lastlog</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/system/post-lastlog</t>
   </si>
   <si>
     <t>사용자 정보 로깅</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>2016 산업부 문제3</t>
@@ -466,8 +466,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>/account/post-passwd</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>/system/post-passwd</t>
   </si>
   <si>
     <t>사용자 접속 정보 로깅</t>
@@ -485,14 +484,16 @@
     <t>[upTime] [loginUsers] [userName] [tty] [connectFrom] [loginTime] [jcpu] [pcpu] [what]</t>
   </si>
   <si>
-    <t>/account/post-info</t>
+    <t>/system/post-w</t>
   </si>
   <si>
     <t>생성된 파일 로깅</t>
   </si>
   <si>
-    <t>2016 산업부 문제9
-2016 산업부 문제10</t>
+    <t xml:space="preserve">2016 산업부 문제9
+2016 산업부 문제10
+HDCON2015 TR1
+문제4 </t>
   </si>
   <si>
     <t>파일 생성 탐지</t>
@@ -513,6 +514,9 @@
     <t>[permission] [user] [group] [size] [time] [path]</t>
   </si>
   <si>
+    <t>/log/post-file</t>
+  </si>
+  <si>
     <t>chkrootkit 결과 로깅</t>
   </si>
   <si>
@@ -532,25 +536,10 @@
     <t>[commandName] [modifiedTime]</t>
   </si>
   <si>
-    <t>/etc/post-chkrootkit</t>
-  </si>
-  <si>
-    <t>crontab 등록 파일 로깅</t>
-  </si>
-  <si>
-    <t>공격 유지 행위 탐지</t>
-  </si>
-  <si>
-    <t>① 초기에 /etc/cron.d 디렉토리 하위에 있는 파일 목록을 메모리에 저장한다.
-② 5초마다 검사하여 변동된 사항을 전송한다.
-③ 새로 생겼을 경우, 생성된 파일을 API 서버에 전송한다.</t>
-  </si>
-  <si>
-    <t>① ls /etc/cron.d</t>
+    <t>/system/post-rootkit</t>
   </si>
   <si>
     <t>암호화</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>도청 방지</t>
@@ -589,6 +578,19 @@
     <t>① Suricata를 사용하여 통신 IP, Port 수집
 (대응 시 수집했던 초기 통신은 필터링)
 ② 룰에 매칭 된 패킷을 5초마다 API서버로 전송</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>① sudo suricata -s rule.rules -i eth0
+② sudo tail -f /var/log/suricata/fast.log</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[time] [srcIP] [srcPort] [dstIP] [dstPort] [data]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/network/post-packet</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -804,6 +806,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>암호화</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>① C&amp;C 서버로 보내는 모든 통신은 암호화 시킨다.</t>
   </si>
   <si>
@@ -908,7 +914,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1304,7 +1310,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1314,74 +1320,38 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1476,6 +1446,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1494,6 +1479,66 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1523,78 +1568,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1618,23 +1591,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1233768</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>142535</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>2305050</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="그림 2">
+        <xdr:cNvPr id="2" name="그림 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DE9A08C-F542-4497-AB35-FC88868BC7CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CBFBD86-D906-4A26-A158-9904016AA7AA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1643,21 +1616,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1156447" y="27369247"/>
-          <a:ext cx="7772400" cy="5287716"/>
+          <a:off x="0" y="34423350"/>
+          <a:ext cx="21374100" cy="21516975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1670,7 +1637,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1966,27 +1933,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B20606A0-8F97-42D7-B07E-C96D54E662E5}">
-  <dimension ref="A1:K45"/>
+  <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="2" width="15.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.625" customWidth="1"/>
-    <col min="6" max="6" width="17.875" style="1" customWidth="1"/>
+    <col min="1" max="2" width="15.19921875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.3984375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.69921875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.59765625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.8984375" style="1" customWidth="1"/>
     <col min="7" max="7" width="45" customWidth="1"/>
-    <col min="8" max="8" width="38.625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="38.59765625" style="1" customWidth="1"/>
     <col min="9" max="9" width="45" style="1" customWidth="1"/>
     <col min="10" max="10" width="20.5" style="1" customWidth="1"/>
-    <col min="11" max="11" width="30.75" style="1" customWidth="1"/>
+    <col min="11" max="11" width="30.69921875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2014,1105 +1979,1112 @@
       <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="35" t="s">
+      <c r="J1" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="82.5">
-      <c r="A2" s="74" t="s">
+    <row r="2" spans="1:11" ht="69.599999999999994" x14ac:dyDescent="0.4">
+      <c r="A2" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="72" t="s">
+      <c r="B2" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="9" t="s">
+      <c r="D2" s="6"/>
+      <c r="E2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="40" t="s">
+      <c r="F2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="40" t="s">
+      <c r="G2" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="H2" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="I2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="37" t="s">
+      <c r="J2" s="6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="49.5">
-      <c r="A3" s="75"/>
-      <c r="B3" s="69"/>
-      <c r="C3" s="65" t="s">
+      <c r="K2" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="57"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="60" t="s">
+    </row>
+    <row r="3" spans="1:11" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="A3" s="58"/>
+      <c r="B3" s="82"/>
+      <c r="C3" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="67" t="s">
+      <c r="D3" s="50"/>
+      <c r="E3" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="67" t="s">
+      <c r="G3" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="33" t="s">
+      <c r="H3" s="80" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="60" t="s">
+      <c r="I3" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="63" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="49.5">
-      <c r="A4" s="76"/>
-      <c r="B4" s="69"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="60" t="s">
+      <c r="J3" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="11" t="s">
+      <c r="K3" s="76" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="A4" s="59"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="50" t="s">
+      <c r="E4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="K4" s="64"/>
-    </row>
-    <row r="5" spans="1:11" ht="66">
-      <c r="A5" s="76"/>
-      <c r="B5" s="71"/>
-      <c r="C5" s="14" t="s">
+      <c r="J4" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="14" t="s">
+      <c r="K4" s="77"/>
+    </row>
+    <row r="5" spans="1:11" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="A5" s="59"/>
+      <c r="B5" s="84"/>
+      <c r="C5" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="41" t="s">
+      <c r="D5" s="8"/>
+      <c r="E5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="43" t="s">
+      <c r="G5" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="I5" s="38" t="s">
+      <c r="H5" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="J5" s="14" t="s">
+      <c r="I5" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="K5" s="39" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="82.5">
-      <c r="A6" s="76"/>
-      <c r="B6" s="62" t="s">
+      <c r="J5" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="K5" s="27" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="69.599999999999994" x14ac:dyDescent="0.4">
+      <c r="A6" s="59"/>
+      <c r="B6" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="34" t="s">
+      <c r="C6" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="17"/>
-      <c r="F6" s="16" t="s">
+      <c r="D6" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="42" t="s">
+      <c r="E6" s="9"/>
+      <c r="F6" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="H6" s="42"/>
-      <c r="I6" s="34" t="s">
+      <c r="G6" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="J6" s="33" t="s">
+      <c r="H6" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="K6" s="36" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="214.5">
-      <c r="A7" s="76"/>
-      <c r="B7" s="70" t="s">
+      <c r="I6" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="J6" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="34" t="s">
+      <c r="K6" s="24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="243.6" x14ac:dyDescent="0.4">
+      <c r="A7" s="59"/>
+      <c r="B7" s="83" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="17"/>
-      <c r="F7" s="16" t="s">
+      <c r="C7" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="G7" s="42" t="s">
+      <c r="D7" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="H7" s="42" t="s">
+      <c r="E7" s="9"/>
+      <c r="F7" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="I7" s="34" t="s">
+      <c r="G7" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="J7" s="16" t="s">
+      <c r="H7" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="K7" s="36" t="s">
+      <c r="I7" s="22" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" ht="115.5">
-      <c r="A8" s="76"/>
-      <c r="B8" s="71"/>
-      <c r="C8" s="14" t="s">
+      <c r="J7" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D8" s="38" t="s">
+      <c r="K7" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="15"/>
-      <c r="F8" s="14" t="s">
+    </row>
+    <row r="8" spans="1:11" ht="87" x14ac:dyDescent="0.4">
+      <c r="A8" s="59"/>
+      <c r="B8" s="84"/>
+      <c r="C8" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="G8" s="41" t="s">
+      <c r="D8" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="H8" s="41"/>
-      <c r="I8" s="38" t="s">
+      <c r="E8" s="8"/>
+      <c r="F8" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="J8" s="14" t="s">
+      <c r="G8" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="K8" s="39" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="181.5">
-      <c r="A9" s="76"/>
-      <c r="B9" s="69" t="s">
+      <c r="H8" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="60" t="s">
+      <c r="I8" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="D9" s="60"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="60" t="s">
+      <c r="J8" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="G9" s="61" t="s">
+      <c r="K8" s="27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="104.4" x14ac:dyDescent="0.4">
+      <c r="A9" s="59"/>
+      <c r="B9" s="82" t="s">
         <v>61</v>
       </c>
-      <c r="H9" s="49" t="s">
+      <c r="C9" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="I9" s="33" t="s">
+      <c r="D9" s="53"/>
+      <c r="E9" s="53" t="s">
         <v>63</v>
       </c>
-      <c r="J9" s="33" t="s">
+      <c r="F9" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="K9" s="59" t="s">
+      <c r="G9" s="54" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" ht="33">
-      <c r="A10" s="76"/>
-      <c r="B10" s="69"/>
-      <c r="C10" s="60" t="s">
+      <c r="H9" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="D10" s="60" t="s">
+      <c r="I9" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="60" t="s">
+      <c r="J9" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="G10" s="61" t="s">
+      <c r="K9" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="H10" s="49" t="s">
+    </row>
+    <row r="10" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A10" s="59"/>
+      <c r="B10" s="82"/>
+      <c r="C10" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="I10" s="33" t="s">
+      <c r="D10" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="J10" s="33" t="s">
+      <c r="E10" s="53" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="K10" s="59" t="s">
+      <c r="G10" s="54" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" ht="49.5">
-      <c r="A11" s="76"/>
-      <c r="B11" s="69"/>
-      <c r="C11" s="60" t="s">
+      <c r="H10" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="D11" s="33" t="s">
+      <c r="I10" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="60" t="s">
+      <c r="J10" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="G11" s="61" t="s">
+      <c r="K10" s="52" t="s">
         <v>77</v>
       </c>
-      <c r="H11" s="49" t="s">
+    </row>
+    <row r="11" spans="1:11" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="A11" s="59"/>
+      <c r="B11" s="82"/>
+      <c r="C11" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="I11" s="60" t="s">
+      <c r="D11" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="J11" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="K11" s="59" t="s">
+      <c r="E11" s="53" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11" s="53" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" ht="66">
-      <c r="A12" s="76"/>
-      <c r="B12" s="69"/>
-      <c r="C12" s="57" t="s">
+      <c r="G11" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="D12" s="57"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="57" t="s">
+      <c r="H11" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="G12" s="61" t="s">
+      <c r="I11" s="53" t="s">
         <v>83</v>
       </c>
-      <c r="H12" s="45" t="s">
+      <c r="J11" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="I12" s="57" t="s">
+      <c r="K11" s="52" t="s">
         <v>85</v>
       </c>
-      <c r="J12" s="52" t="s">
-        <v>64</v>
-      </c>
-      <c r="K12" s="59" t="s">
+    </row>
+    <row r="12" spans="1:11" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="A12" s="59"/>
+      <c r="B12" s="82"/>
+      <c r="C12" s="50" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" ht="49.5">
-      <c r="A13" s="76"/>
-      <c r="B13" s="69"/>
-      <c r="C13" s="57" t="s">
+      <c r="D12" s="50"/>
+      <c r="E12" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="D13" s="52" t="s">
+      <c r="G12" s="54" t="s">
         <v>88</v>
       </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="57" t="s">
+      <c r="H12" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="G13" s="51" t="s">
+      <c r="I12" s="50" t="s">
         <v>90</v>
       </c>
-      <c r="H13" s="51" t="s">
+      <c r="J12" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="I13" s="57" t="s">
+      <c r="K12" s="52" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="A13" s="59"/>
+      <c r="B13" s="82"/>
+      <c r="C13" s="50" t="s">
         <v>92</v>
       </c>
-      <c r="J13" s="52" t="s">
+      <c r="D13" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="K13" s="58" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="49.5">
-      <c r="A14" s="76"/>
-      <c r="B14" s="69"/>
-      <c r="C14" s="57" t="s">
+      <c r="E13" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13" s="50" t="s">
         <v>94</v>
       </c>
-      <c r="D14" s="52" t="s">
+      <c r="G13" s="39" t="s">
         <v>95</v>
       </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="57" t="s">
+      <c r="H13" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="G14" s="51" t="s">
+      <c r="I13" s="50" t="s">
         <v>97</v>
       </c>
-      <c r="H14" s="51" t="s">
+      <c r="J13" s="40" t="s">
         <v>98</v>
       </c>
-      <c r="I14" s="52" t="s">
+      <c r="K13" s="51" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="A14" s="59"/>
+      <c r="B14" s="82"/>
+      <c r="C14" s="50" t="s">
         <v>99</v>
       </c>
-      <c r="J14" s="52" t="s">
+      <c r="D14" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="K14" s="58" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="49.5">
-      <c r="A15" s="76"/>
-      <c r="B15" s="69"/>
-      <c r="C15" s="57" t="s">
+      <c r="E14" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="D15" s="52"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="57" t="s">
+      <c r="G14" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="G15" s="51" t="s">
+      <c r="H14" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="H15" s="51" t="s">
+      <c r="I14" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="I15" s="52" t="s">
+      <c r="J14" s="40" t="s">
         <v>105</v>
       </c>
-      <c r="J15" s="52" t="s">
+      <c r="K14" s="51" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="A15" s="59"/>
+      <c r="B15" s="82"/>
+      <c r="C15" s="50" t="s">
         <v>106</v>
       </c>
-      <c r="K15" s="58" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="115.5">
-      <c r="A16" s="76"/>
-      <c r="B16" s="69"/>
-      <c r="C16" s="57" t="s">
+      <c r="D15" s="40"/>
+      <c r="E15" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="F15" s="50" t="s">
         <v>107</v>
       </c>
-      <c r="D16" s="52" t="s">
+      <c r="G15" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="57" t="s">
+      <c r="H15" s="39" t="s">
         <v>109</v>
       </c>
-      <c r="G16" s="51" t="s">
+      <c r="I15" s="40" t="s">
         <v>110</v>
       </c>
-      <c r="H16" s="51" t="s">
+      <c r="J15" s="40" t="s">
         <v>111</v>
       </c>
-      <c r="I16" s="52" t="s">
+      <c r="K15" s="51" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="104.4" x14ac:dyDescent="0.4">
+      <c r="A16" s="59"/>
+      <c r="B16" s="82"/>
+      <c r="C16" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="J16" s="52"/>
-      <c r="K16" s="58" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="99.75" customHeight="1">
-      <c r="A17" s="76"/>
-      <c r="B17" s="69"/>
-      <c r="C17" s="57" t="s">
+      <c r="D16" s="40" t="s">
         <v>113</v>
       </c>
-      <c r="D17" s="57"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="57" t="s">
+      <c r="E16" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="F16" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="G17" s="51" t="s">
+      <c r="G16" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="H17" s="51" t="s">
+      <c r="H16" s="39" t="s">
         <v>116</v>
       </c>
-      <c r="I17" s="52" t="s">
+      <c r="I16" s="40" t="s">
         <v>117</v>
       </c>
-      <c r="J17" s="52" t="s">
+      <c r="J16" s="40" t="s">
         <v>118</v>
       </c>
-      <c r="K17" s="58"/>
-    </row>
-    <row r="18" spans="1:11" ht="99.75" customHeight="1">
-      <c r="A18" s="76"/>
-      <c r="B18" s="69"/>
-      <c r="C18" s="57" t="s">
+      <c r="K16" s="51" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="59"/>
+      <c r="B17" s="82"/>
+      <c r="C17" s="50" t="s">
         <v>119</v>
       </c>
-      <c r="D18" s="57"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="57" t="s">
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50" t="s">
         <v>120</v>
       </c>
-      <c r="G18" s="51" t="s">
+      <c r="G17" s="39" t="s">
         <v>121</v>
       </c>
-      <c r="H18" s="51" t="s">
+      <c r="H17" s="39" t="s">
         <v>122</v>
       </c>
-      <c r="I18" s="52"/>
-      <c r="J18" s="52"/>
-      <c r="K18" s="58"/>
-    </row>
-    <row r="19" spans="1:11" ht="115.5">
-      <c r="A19" s="76"/>
-      <c r="B19" s="69"/>
-      <c r="C19" s="57" t="s">
+      <c r="I17" s="40" t="s">
         <v>123</v>
       </c>
-      <c r="D19" s="57"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="57" t="s">
+      <c r="J17" s="40" t="s">
         <v>124</v>
       </c>
-      <c r="G19" s="51" t="s">
+      <c r="K17" s="51"/>
+    </row>
+    <row r="18" spans="1:11" ht="104.4" x14ac:dyDescent="0.4">
+      <c r="A18" s="59"/>
+      <c r="B18" s="82"/>
+      <c r="C18" s="50" t="s">
         <v>125</v>
       </c>
-      <c r="H19" s="51" t="s">
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50" t="s">
         <v>126</v>
       </c>
-      <c r="I19" s="52" t="s">
+      <c r="G18" s="39" t="s">
         <v>127</v>
       </c>
-      <c r="J19" s="52" t="s">
-        <v>127</v>
-      </c>
-      <c r="K19" s="58" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="66">
-      <c r="A20" s="90" t="s">
+      <c r="H18" s="39" t="s">
         <v>128</v>
       </c>
-      <c r="B20" s="85" t="s">
+      <c r="I18" s="40" t="s">
         <v>129</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="J18" s="40" t="s">
+        <v>129</v>
+      </c>
+      <c r="K18" s="51" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="A19" s="73" t="s">
+        <v>130</v>
+      </c>
+      <c r="B19" s="68" t="s">
+        <v>131</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="G20" s="53" t="s">
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G19" s="41" t="s">
+        <v>133</v>
+      </c>
+      <c r="H19" s="41" t="s">
+        <v>134</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="K19" s="42" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="A20" s="74"/>
+      <c r="B20" s="69"/>
+      <c r="C20" s="56" t="s">
+        <v>137</v>
+      </c>
+      <c r="D20" s="50"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="56" t="s">
+        <v>138</v>
+      </c>
+      <c r="G20" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="H20" s="39" t="s">
+        <v>140</v>
+      </c>
+      <c r="I20" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="J20" s="50" t="s">
+        <v>141</v>
+      </c>
+      <c r="K20" s="16" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="A21" s="74"/>
+      <c r="B21" s="69"/>
+      <c r="C21" s="56"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="H21" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="I21" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="J21" s="50" t="s">
+        <v>145</v>
+      </c>
+      <c r="K21" s="51" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="69.599999999999994" x14ac:dyDescent="0.4">
+      <c r="A22" s="74"/>
+      <c r="B22" s="70"/>
+      <c r="C22" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="G22" s="34" t="s">
+        <v>148</v>
+      </c>
+      <c r="H22" s="44" t="s">
+        <v>149</v>
+      </c>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="17"/>
+    </row>
+    <row r="23" spans="1:11" ht="121.8" x14ac:dyDescent="0.4">
+      <c r="A23" s="74"/>
+      <c r="B23" s="71" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="G23" s="43" t="s">
+        <v>151</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="I23" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="J23" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="K23" s="18" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="A24" s="74"/>
+      <c r="B24" s="69"/>
+      <c r="C24" s="50" t="s">
+        <v>152</v>
+      </c>
+      <c r="D24" s="50"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="40" t="s">
+        <v>153</v>
+      </c>
+      <c r="G24" s="39" t="s">
+        <v>154</v>
+      </c>
+      <c r="H24" s="39" t="s">
+        <v>155</v>
+      </c>
+      <c r="I24" s="40" t="s">
+        <v>129</v>
+      </c>
+      <c r="J24" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="K24" s="51" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="87" x14ac:dyDescent="0.4">
+      <c r="A25" s="74"/>
+      <c r="B25" s="70"/>
+      <c r="C25" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="45" t="s">
+        <v>157</v>
+      </c>
+      <c r="G25" s="44" t="s">
+        <v>158</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="I25" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="J25" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="K25" s="17" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="A26" s="74"/>
+      <c r="B26" s="71" t="s">
+        <v>160</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="G26" s="43" t="s">
+        <v>162</v>
+      </c>
+      <c r="H26" s="43" t="s">
+        <v>163</v>
+      </c>
+      <c r="I26" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="J26" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="K26" s="18" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="69.599999999999994" x14ac:dyDescent="0.4">
+      <c r="A27" s="74"/>
+      <c r="B27" s="69"/>
+      <c r="C27" s="50" t="s">
+        <v>164</v>
+      </c>
+      <c r="D27" s="50"/>
+      <c r="E27" s="50"/>
+      <c r="F27" s="50" t="s">
+        <v>138</v>
+      </c>
+      <c r="G27" s="39" t="s">
+        <v>165</v>
+      </c>
+      <c r="H27" s="39" t="s">
+        <v>166</v>
+      </c>
+      <c r="I27" s="50"/>
+      <c r="J27" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="K27" s="16" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="87" x14ac:dyDescent="0.4">
+      <c r="A28" s="74"/>
+      <c r="B28" s="70"/>
+      <c r="C28" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="G28" s="44" t="s">
+        <v>169</v>
+      </c>
+      <c r="H28" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="I28" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="J28" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="K28" s="17" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="A29" s="74"/>
+      <c r="B29" s="69" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" s="50" t="s">
+        <v>170</v>
+      </c>
+      <c r="D29" s="50"/>
+      <c r="E29" s="50"/>
+      <c r="F29" s="50" t="s">
+        <v>171</v>
+      </c>
+      <c r="G29" s="33" t="s">
+        <v>172</v>
+      </c>
+      <c r="H29" s="33"/>
+      <c r="I29" s="40" t="s">
+        <v>173</v>
+      </c>
+      <c r="J29" s="50" t="s">
+        <v>174</v>
+      </c>
+      <c r="K29" s="51" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="87" x14ac:dyDescent="0.4">
+      <c r="A30" s="74"/>
+      <c r="B30" s="69"/>
+      <c r="C30" s="50" t="s">
+        <v>175</v>
+      </c>
+      <c r="D30" s="50"/>
+      <c r="E30" s="50"/>
+      <c r="F30" s="50" t="s">
+        <v>132</v>
+      </c>
+      <c r="G30" s="39" t="s">
+        <v>176</v>
+      </c>
+      <c r="H30" s="39" t="s">
+        <v>177</v>
+      </c>
+      <c r="I30" s="40" t="s">
+        <v>178</v>
+      </c>
+      <c r="J30" s="50" t="s">
+        <v>179</v>
+      </c>
+      <c r="K30" s="51" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="104.4" x14ac:dyDescent="0.4">
+      <c r="A31" s="75"/>
+      <c r="B31" s="72"/>
+      <c r="C31" s="50" t="s">
+        <v>180</v>
+      </c>
+      <c r="D31" s="50"/>
+      <c r="E31" s="50"/>
+      <c r="F31" s="50" t="s">
+        <v>126</v>
+      </c>
+      <c r="G31" s="39" t="s">
+        <v>181</v>
+      </c>
+      <c r="H31" s="39" t="s">
+        <v>182</v>
+      </c>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="14"/>
+    </row>
+    <row r="32" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A32" s="60" t="s">
+        <v>183</v>
+      </c>
+      <c r="B32" s="63" t="s">
         <v>131</v>
       </c>
-      <c r="H20" s="53" t="s">
-        <v>16</v>
-      </c>
-      <c r="I20" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J20" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="K20" s="54" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="82.5">
-      <c r="A21" s="91"/>
-      <c r="B21" s="86"/>
-      <c r="C21" s="73" t="s">
-        <v>132</v>
-      </c>
-      <c r="D21" s="57"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="73" t="s">
-        <v>133</v>
-      </c>
-      <c r="G21" s="51" t="s">
-        <v>134</v>
-      </c>
-      <c r="H21" s="51" t="s">
-        <v>135</v>
-      </c>
-      <c r="I21" s="57" t="s">
-        <v>127</v>
-      </c>
-      <c r="J21" s="57" t="s">
-        <v>136</v>
-      </c>
-      <c r="K21" s="28" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="49.5">
-      <c r="A22" s="91"/>
-      <c r="B22" s="86"/>
-      <c r="C22" s="73"/>
-      <c r="D22" s="57"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="73"/>
-      <c r="G22" s="51" t="s">
-        <v>137</v>
-      </c>
-      <c r="H22" s="51" t="s">
-        <v>138</v>
-      </c>
-      <c r="I22" s="52" t="s">
-        <v>139</v>
-      </c>
-      <c r="J22" s="57" t="s">
-        <v>140</v>
-      </c>
-      <c r="K22" s="58" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="66">
-      <c r="A23" s="91"/>
-      <c r="B23" s="87"/>
-      <c r="C23" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="D23" s="18"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="G23" s="46" t="s">
-        <v>143</v>
-      </c>
-      <c r="H23" s="56" t="s">
-        <v>144</v>
-      </c>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="29"/>
-    </row>
-    <row r="24" spans="1:11" ht="132">
-      <c r="A24" s="91"/>
-      <c r="B24" s="88" t="s">
-        <v>36</v>
-      </c>
-      <c r="C24" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="D24" s="20"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="G24" s="55" t="s">
-        <v>146</v>
-      </c>
-      <c r="H24" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="I24" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="J24" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="K24" s="30" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="49.5">
-      <c r="A25" s="91"/>
-      <c r="B25" s="86"/>
-      <c r="C25" s="57" t="s">
-        <v>147</v>
-      </c>
-      <c r="D25" s="57"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="52" t="s">
-        <v>148</v>
-      </c>
-      <c r="G25" s="51" t="s">
-        <v>149</v>
-      </c>
-      <c r="H25" s="51" t="s">
-        <v>150</v>
-      </c>
-      <c r="I25" s="52" t="s">
-        <v>127</v>
-      </c>
-      <c r="J25" s="57" t="s">
-        <v>127</v>
-      </c>
-      <c r="K25" s="58" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="148.5">
-      <c r="A26" s="91"/>
-      <c r="B26" s="87"/>
-      <c r="C26" s="18" t="s">
-        <v>151</v>
-      </c>
-      <c r="D26" s="18"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="93" t="s">
-        <v>152</v>
-      </c>
-      <c r="G26" s="56" t="s">
-        <v>153</v>
-      </c>
-      <c r="H26" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="I26" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="J26" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="K26" s="29" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="49.5">
-      <c r="A27" s="91"/>
-      <c r="B27" s="88" t="s">
-        <v>155</v>
-      </c>
-      <c r="C27" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="D27" s="20"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="G27" s="55" t="s">
-        <v>157</v>
-      </c>
-      <c r="H27" s="55" t="s">
-        <v>158</v>
-      </c>
-      <c r="I27" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="J27" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="K27" s="30" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="99">
-      <c r="A28" s="91"/>
-      <c r="B28" s="86"/>
-      <c r="C28" s="57" t="s">
-        <v>159</v>
-      </c>
-      <c r="D28" s="57"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="57" t="s">
-        <v>133</v>
-      </c>
-      <c r="G28" s="51" t="s">
+      <c r="C32" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="G32" s="41" t="s">
+        <v>187</v>
+      </c>
+      <c r="H32" s="46" t="s">
+        <v>188</v>
+      </c>
+      <c r="I32" s="46" t="s">
+        <v>189</v>
+      </c>
+      <c r="J32" s="4"/>
+      <c r="K32" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="69.599999999999994" x14ac:dyDescent="0.4">
+      <c r="A33" s="61"/>
+      <c r="B33" s="64"/>
+      <c r="C33" s="50" t="s">
+        <v>191</v>
+      </c>
+      <c r="D33" s="50" t="s">
+        <v>192</v>
+      </c>
+      <c r="E33" s="50"/>
+      <c r="F33" s="50" t="s">
+        <v>193</v>
+      </c>
+      <c r="G33" s="39" t="s">
+        <v>194</v>
+      </c>
+      <c r="H33" s="50" t="s">
+        <v>195</v>
+      </c>
+      <c r="I33" s="40" t="s">
+        <v>196</v>
+      </c>
+      <c r="J33" s="50"/>
+      <c r="K33" s="16" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A34" s="61"/>
+      <c r="B34" s="64"/>
+      <c r="C34" s="50" t="s">
+        <v>197</v>
+      </c>
+      <c r="D34" s="50" t="s">
+        <v>198</v>
+      </c>
+      <c r="E34" s="50"/>
+      <c r="F34" s="50" t="s">
+        <v>199</v>
+      </c>
+      <c r="G34" s="39" t="s">
+        <v>200</v>
+      </c>
+      <c r="H34" s="50" t="s">
+        <v>195</v>
+      </c>
+      <c r="I34" s="40" t="s">
+        <v>201</v>
+      </c>
+      <c r="J34" s="50"/>
+      <c r="K34" s="16" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="A35" s="61"/>
+      <c r="B35" s="65"/>
+      <c r="C35" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="D35" s="48" t="s">
+        <v>203</v>
+      </c>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="G35" s="47" t="s">
+        <v>205</v>
+      </c>
+      <c r="H35" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="I35" s="48" t="s">
+        <v>207</v>
+      </c>
+      <c r="J35" s="12"/>
+      <c r="K35" s="19" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A36" s="61"/>
+      <c r="B36" s="66" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="36"/>
+      <c r="H36" s="36"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="13"/>
+      <c r="K36" s="20"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A37" s="61"/>
+      <c r="B37" s="64"/>
+      <c r="C37" s="50"/>
+      <c r="D37" s="50"/>
+      <c r="E37" s="50"/>
+      <c r="F37" s="50"/>
+      <c r="G37" s="33"/>
+      <c r="H37" s="33"/>
+      <c r="I37" s="50"/>
+      <c r="J37" s="50"/>
+      <c r="K37" s="16"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A38" s="61"/>
+      <c r="B38" s="65"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="35"/>
+      <c r="H38" s="35"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="19"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A39" s="61"/>
+      <c r="B39" s="66" t="s">
         <v>160</v>
       </c>
-      <c r="H28" s="51" t="s">
-        <v>161</v>
-      </c>
-      <c r="I28" s="57" t="s">
-        <v>127</v>
-      </c>
-      <c r="J28" s="57" t="s">
-        <v>127</v>
-      </c>
-      <c r="K28" s="28" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="99">
-      <c r="A29" s="91"/>
-      <c r="B29" s="87"/>
-      <c r="C29" s="18" t="s">
-        <v>162</v>
-      </c>
-      <c r="D29" s="18"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="18" t="s">
-        <v>163</v>
-      </c>
-      <c r="G29" s="56" t="s">
-        <v>164</v>
-      </c>
-      <c r="H29" s="46" t="s">
-        <v>127</v>
-      </c>
-      <c r="I29" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="J29" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="K29" s="29" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="49.5">
-      <c r="A30" s="91"/>
-      <c r="B30" s="86" t="s">
-        <v>58</v>
-      </c>
-      <c r="C30" s="57" t="s">
-        <v>165</v>
-      </c>
-      <c r="D30" s="57"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="57" t="s">
-        <v>166</v>
-      </c>
-      <c r="G30" s="45" t="s">
-        <v>167</v>
-      </c>
-      <c r="H30" s="45"/>
-      <c r="I30" s="52" t="s">
-        <v>168</v>
-      </c>
-      <c r="J30" s="57" t="s">
-        <v>169</v>
-      </c>
-      <c r="K30" s="58" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="99">
-      <c r="A31" s="91"/>
-      <c r="B31" s="86"/>
-      <c r="C31" s="57" t="s">
-        <v>170</v>
-      </c>
-      <c r="D31" s="57"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="57" t="s">
-        <v>130</v>
-      </c>
-      <c r="G31" s="51" t="s">
-        <v>171</v>
-      </c>
-      <c r="H31" s="51" t="s">
-        <v>172</v>
-      </c>
-      <c r="I31" s="52" t="s">
-        <v>173</v>
-      </c>
-      <c r="J31" s="57" t="s">
-        <v>174</v>
-      </c>
-      <c r="K31" s="58" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="115.5">
-      <c r="A32" s="92"/>
-      <c r="B32" s="89"/>
-      <c r="C32" s="57" t="s">
-        <v>123</v>
-      </c>
-      <c r="D32" s="57"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="57" t="s">
-        <v>124</v>
-      </c>
-      <c r="G32" s="51" t="s">
-        <v>175</v>
-      </c>
-      <c r="H32" s="51" t="s">
-        <v>176</v>
-      </c>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="26"/>
-    </row>
-    <row r="33" spans="1:11" ht="49.5">
-      <c r="A33" s="77" t="s">
-        <v>177</v>
-      </c>
-      <c r="B33" s="80" t="s">
-        <v>129</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="E33" s="7"/>
-      <c r="F33" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="G33" s="53" t="s">
-        <v>181</v>
-      </c>
-      <c r="H33" s="94" t="s">
-        <v>182</v>
-      </c>
-      <c r="I33" s="94" t="s">
-        <v>183</v>
-      </c>
-      <c r="J33" s="6"/>
-      <c r="K33" s="27" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" ht="99">
-      <c r="A34" s="78"/>
-      <c r="B34" s="81"/>
-      <c r="C34" s="57" t="s">
-        <v>185</v>
-      </c>
-      <c r="D34" s="57" t="s">
-        <v>186</v>
-      </c>
-      <c r="E34" s="3"/>
-      <c r="F34" s="57" t="s">
-        <v>187</v>
-      </c>
-      <c r="G34" s="51" t="s">
-        <v>188</v>
-      </c>
-      <c r="H34" s="57" t="s">
-        <v>189</v>
-      </c>
-      <c r="I34" s="52" t="s">
-        <v>190</v>
-      </c>
-      <c r="J34" s="57"/>
-      <c r="K34" s="28" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" ht="49.5">
-      <c r="A35" s="78"/>
-      <c r="B35" s="81"/>
-      <c r="C35" s="57" t="s">
-        <v>191</v>
-      </c>
-      <c r="D35" s="57" t="s">
-        <v>192</v>
-      </c>
-      <c r="E35" s="3"/>
-      <c r="F35" s="57" t="s">
-        <v>193</v>
-      </c>
-      <c r="G35" s="51" t="s">
-        <v>194</v>
-      </c>
-      <c r="H35" s="57" t="s">
-        <v>189</v>
-      </c>
-      <c r="I35" s="52" t="s">
-        <v>195</v>
-      </c>
-      <c r="J35" s="57"/>
-      <c r="K35" s="28" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" ht="66">
-      <c r="A36" s="78"/>
-      <c r="B36" s="82"/>
-      <c r="C36" s="22" t="s">
-        <v>196</v>
-      </c>
-      <c r="D36" s="96" t="s">
-        <v>197</v>
-      </c>
-      <c r="E36" s="23"/>
-      <c r="F36" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="G36" s="95" t="s">
-        <v>199</v>
-      </c>
-      <c r="H36" s="22" t="s">
-        <v>200</v>
-      </c>
-      <c r="I36" s="96" t="s">
-        <v>201</v>
-      </c>
-      <c r="J36" s="22"/>
-      <c r="K36" s="31" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
-      <c r="A37" s="78"/>
-      <c r="B37" s="83" t="s">
-        <v>36</v>
-      </c>
-      <c r="C37" s="24"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="25"/>
-      <c r="F37" s="24"/>
-      <c r="G37" s="48"/>
-      <c r="H37" s="48"/>
-      <c r="I37" s="24"/>
-      <c r="J37" s="24"/>
-      <c r="K37" s="32"/>
-    </row>
-    <row r="38" spans="1:11">
-      <c r="A38" s="78"/>
-      <c r="B38" s="81"/>
-      <c r="C38" s="57"/>
-      <c r="D38" s="57"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="57"/>
-      <c r="G38" s="45"/>
-      <c r="H38" s="45"/>
-      <c r="I38" s="57"/>
-      <c r="J38" s="57"/>
-      <c r="K38" s="28"/>
-    </row>
-    <row r="39" spans="1:11">
-      <c r="A39" s="78"/>
-      <c r="B39" s="82"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="23"/>
-      <c r="F39" s="22"/>
-      <c r="G39" s="47"/>
-      <c r="H39" s="47"/>
-      <c r="I39" s="22"/>
-      <c r="J39" s="22"/>
-      <c r="K39" s="31"/>
-    </row>
-    <row r="40" spans="1:11">
-      <c r="A40" s="78"/>
-      <c r="B40" s="83" t="s">
-        <v>155</v>
-      </c>
-      <c r="C40" s="24"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="25"/>
-      <c r="F40" s="24"/>
-      <c r="G40" s="48"/>
-      <c r="H40" s="48"/>
-      <c r="I40" s="24"/>
-      <c r="J40" s="24"/>
-      <c r="K40" s="32"/>
-    </row>
-    <row r="41" spans="1:11">
-      <c r="A41" s="78"/>
-      <c r="B41" s="81"/>
-      <c r="C41" s="57"/>
-      <c r="D41" s="57"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="57"/>
-      <c r="G41" s="45"/>
-      <c r="H41" s="45"/>
-      <c r="I41" s="57"/>
-      <c r="J41" s="57"/>
-      <c r="K41" s="28"/>
-    </row>
-    <row r="42" spans="1:11">
-      <c r="A42" s="78"/>
-      <c r="B42" s="82"/>
-      <c r="C42" s="22"/>
-      <c r="D42" s="22"/>
-      <c r="E42" s="23"/>
-      <c r="F42" s="22"/>
-      <c r="G42" s="47"/>
-      <c r="H42" s="47"/>
-      <c r="I42" s="22"/>
-      <c r="J42" s="22"/>
-      <c r="K42" s="31"/>
-    </row>
-    <row r="43" spans="1:11">
-      <c r="A43" s="78"/>
-      <c r="B43" s="81" t="s">
-        <v>58</v>
-      </c>
-      <c r="C43" s="57"/>
-      <c r="D43" s="57"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="57"/>
-      <c r="G43" s="45"/>
-      <c r="H43" s="45"/>
-      <c r="I43" s="57"/>
-      <c r="J43" s="57"/>
-      <c r="K43" s="28"/>
-    </row>
-    <row r="44" spans="1:11">
-      <c r="A44" s="78"/>
-      <c r="B44" s="81"/>
-      <c r="C44" s="57"/>
-      <c r="D44" s="57"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="36"/>
+      <c r="H39" s="36"/>
+      <c r="I39" s="13"/>
+      <c r="J39" s="13"/>
+      <c r="K39" s="20"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A40" s="61"/>
+      <c r="B40" s="64"/>
+      <c r="C40" s="50"/>
+      <c r="D40" s="50"/>
+      <c r="E40" s="50"/>
+      <c r="F40" s="50"/>
+      <c r="G40" s="33"/>
+      <c r="H40" s="33"/>
+      <c r="I40" s="50"/>
+      <c r="J40" s="50"/>
+      <c r="K40" s="16"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A41" s="61"/>
+      <c r="B41" s="65"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="35"/>
+      <c r="H41" s="35"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="19"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A42" s="61"/>
+      <c r="B42" s="64" t="s">
+        <v>61</v>
+      </c>
+      <c r="C42" s="50"/>
+      <c r="D42" s="50"/>
+      <c r="E42" s="50"/>
+      <c r="F42" s="50"/>
+      <c r="G42" s="33"/>
+      <c r="H42" s="33"/>
+      <c r="I42" s="50"/>
+      <c r="J42" s="50"/>
+      <c r="K42" s="16"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A43" s="61"/>
+      <c r="B43" s="64"/>
+      <c r="C43" s="50"/>
+      <c r="D43" s="50"/>
+      <c r="E43" s="50"/>
+      <c r="F43" s="50"/>
+      <c r="G43" s="33"/>
+      <c r="H43" s="33"/>
+      <c r="I43" s="50"/>
+      <c r="J43" s="50"/>
+      <c r="K43" s="16"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A44" s="62"/>
+      <c r="B44" s="67"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
       <c r="E44" s="3"/>
-      <c r="F44" s="57"/>
-      <c r="G44" s="45"/>
-      <c r="H44" s="45"/>
-      <c r="I44" s="57"/>
-      <c r="J44" s="57"/>
-      <c r="K44" s="28"/>
-    </row>
-    <row r="45" spans="1:11">
-      <c r="A45" s="79"/>
-      <c r="B45" s="84"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="44"/>
-      <c r="H45" s="44"/>
-      <c r="I45" s="4"/>
-      <c r="J45" s="4"/>
-      <c r="K45" s="26"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="32"/>
+      <c r="H44" s="32"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="A2:A19"/>
-    <mergeCell ref="A33:A45"/>
-    <mergeCell ref="B33:B36"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="A20:A32"/>
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="H3:H4"/>
-    <mergeCell ref="B9:B19"/>
+    <mergeCell ref="B9:B18"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="A2:A18"/>
+    <mergeCell ref="A32:A44"/>
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="A19:A31"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/김종민_실시간 대응/WBS.xlsx
+++ b/김종민_실시간 대응/WBS.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23802"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dnwnd\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://o365ysu-my.sharepoint.com/personal/10141314_office_ysu_ac_kr/Documents/BoB 실시간 공격 방어/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66C21B4A-FA22-483D-821C-B8EB7AD291D9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3EFA9419-5B7E-46D8-8465-8ED2688D144C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{35B256A6-5A4A-4D0F-80DD-C9C50C59A13C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="220">
+  <si>
+    <t>완성된 모듈 저장</t>
+  </si>
+  <si>
+    <t>https://tinyurl.com/y4k3sa7s</t>
+  </si>
   <si>
     <t>프로그램</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -53,6 +59,9 @@
   <si>
     <t>담당</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>모듈 제작 완료</t>
   </si>
   <si>
     <t>목적</t>
@@ -95,21 +104,24 @@
     <t>김태룡</t>
   </si>
   <si>
+    <t>완료</t>
+  </si>
+  <si>
     <t>C&amp;C 서버 추적</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>① Suricata를 사용하여 초기 통신 IP, Port 수집
+    <t>① 패킷 스니퍼를 이용하여 패킷을 수집한다.
 ② 초기 통신 대상 IP, Port를 제외한 통신에 대한 로깅 룰을 작성하여 등록한다.
 ③ 룰에 매칭 된 패킷을 5초마다 API서버로 전송</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>① sudo suricata -s rule.rules -i eth0
-② sudo tail -f /var/log/suricata/fast.log</t>
-  </si>
-  <si>
-    <t>[time] [srcIP] [srcPort] [dstIP] [dstPort] [data]</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>[time] [protocol] [srcIP]
+[srcPort] [dstIP] [dstPort] [header] [data]
+(time : yyyy-MM-dd HH:mm:ss)</t>
   </si>
   <si>
     <t>/network/post-packet</t>
@@ -139,13 +151,11 @@
   </si>
   <si>
     <t>[time] [proto] [localAddress] [foreignAddress]
-[state] [pid] [programName] [timer]
+[state] [pidOrProgramName] [timer]
 (time : yyyy-MM-dd HH:mm:ss)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>/network/post-conn</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>CCE 문제7</t>
@@ -157,13 +167,11 @@
   </si>
   <si>
     <t>[time] [proto] [refCnt] [type] [state]
-[iNode] [pid] [programName] [path]
+[iNode] [pidOrProgramName] [path]
 (time : yyyy-MM-dd HH:mm:ss)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>/network/post-socks</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>ARP 테이블정보 수집</t>
@@ -190,19 +198,43 @@
     <t>/network/post-arp</t>
   </si>
   <si>
+    <t>Outputs와 동일한
+필드명과 데이터명을
+작성하여 전송한다.</t>
+  </si>
+  <si>
     <t>프로세스</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>프로세스 실행정보 수집</t>
+  </si>
+  <si>
+    <t>실행 중인 프로세스 탐지</t>
+  </si>
+  <si>
+    <t>① Isof 명령어를 통해 실행 중인 프로세스 PID와 실행 정보를 가져온다.
+② 초기 등록된 주소를 필터링 대상으로 등록한다.
+③ 5초마다 선별 수집된 데이터를 전송한다.</t>
+  </si>
+  <si>
+    <t>① lsof</t>
+  </si>
+  <si>
+    <t>[time], [command], [pid], [path]
+(time : yyyy-MM-dd HH:mm:ss)</t>
+  </si>
+  <si>
+    <t>/process/post-lsof</t>
+  </si>
+  <si>
     <t>프로세스 동작 상태 수집</t>
   </si>
   <si>
-    <t>AhnLab Low 문제2
-CCE 문제9</t>
+    <t>백승훈</t>
   </si>
   <si>
     <t>악성 프로세스 추적</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>① Inputs 명령어를 통해 초기 프로세스 수집
@@ -211,19 +243,31 @@
    정보로 통합 시키고 Outputs 형태로 출력</t>
   </si>
   <si>
+    <t>① lsmod</t>
+  </si>
+  <si>
+    <t>[time] [name] [size] [used] [by]
+(time : yyyy-MM-dd HH:mm:ss)</t>
+  </si>
+  <si>
+    <t>/process/post-lsmod</t>
+  </si>
+  <si>
+    <t>AhnLab Low 문제2
+CCE 문제9</t>
+  </si>
+  <si>
     <t>① ps -aux
 ② pstree -a
-③ lsmod
-④ ps -eaf</t>
-  </si>
-  <si>
-    <t>[name] [uid] [pid] [ppid] [childName]
-[stime] [size] [used] [by] [cmd]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+③ ps -eaf</t>
+  </si>
+  <si>
+    <t>[time] [name] [uid] [pid] [ppid]
+[childName] [stime] [cmd]
+(time : yyyy-MM-dd HH:mm:ss)</t>
   </si>
   <si>
     <t>/process/post-status</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>로그파일</t>
@@ -248,16 +292,15 @@
 (시스템에 해당 로그가 없을 경우, 5초마다 재 검색하여 시연 도중 생성된 것도 로깅한다.)</t>
   </si>
   <si>
-    <t>① sudo cat [로그 목록]
+    <t xml:space="preserve">① sudo cat [로그 목록]
 [로그목록]
 /var/log/auth.log → SSH, Telnet 로그
 /var/log/cron → crontab 관련 로그
 /var/log/secure → 접속관련 timestamp, 호스트명, pid
 /var/log/xferlog → ftp를 사용하는 데몬 관련 로그
 /var/log/message → 종합적으로 남는 로그
-/var/log/secure → SSH, Telnet 로그
 /var/log/utmp, /var/log/wtmp → 로그인 시도 로그
-/var/log/xferlog → ftp를 사용하는 데몬 관련 로그</t>
+</t>
   </si>
   <si>
     <t>[path] [date] [user] [message]
@@ -265,11 +308,6 @@
   </si>
   <si>
     <t>/log/post-major</t>
-  </si>
-  <si>
-    <t>Outputs와 동일한
-필드명과 데이터명을
-작성하여 전송한다.</t>
   </si>
   <si>
     <t>웹 로그 수집</t>
@@ -278,6 +316,10 @@
     <t xml:space="preserve">HDCON2015 TR1
 문제1
 CCE 문제3 </t>
+  </si>
+  <si>
+    <t>완료
+(서버 받고 수정)</t>
   </si>
   <si>
     <t>피해 활동 추적</t>
@@ -350,7 +392,7 @@
     <t>① 최초 1회 PC정보를 수집하여 전송한다.</t>
   </si>
   <si>
-    <t>① cat /etc/*-release | grep DISTRIB_DESCRIPTION</t>
+    <t>① cat /etc/*-release | uniq</t>
   </si>
   <si>
     <t>[SITRIB_DESCRIPTION]</t>
@@ -381,11 +423,10 @@
   </si>
   <si>
     <t>① fopen('/etc/hosts')</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>['ADD' | 'DEL'] [address]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[time] ['ADD' | 'DEL'] [address]
+(시간 포맷 : yyyy-MM-dd HH:mm:ss)</t>
   </si>
   <si>
     <t>/system/post-hosts</t>
@@ -458,12 +499,9 @@
   </si>
   <si>
     <t>① cat /etc/passwd</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>['ADD' | 'DEL' | 'MOD'] [user]
-[permission] [daemon] [path]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[time] ['ADD' | 'DEL'] [user] [daemon] [path]</t>
   </si>
   <si>
     <t>/system/post-passwd</t>
@@ -504,14 +542,15 @@
 ③ 생성된 파일 목록들에 대해 ls -l 명령어를 사용하여 생성시간, 생성 계정 등을 확인한다.</t>
   </si>
   <si>
-    <t>① find -type f -mtime -1 -exec ls -lrt {} \;
+    <t xml:space="preserve">① find -type f -mtime -1 -exec ls -lrt {} \;
     find / -ctime -1 -type f  -exec ls -lrt {} \;
 ② 기존 목록에 있던 파일을 빼는 과정
 ③ 새로운 파일 목록 저장하는 과정
-④ ls -l (새로운 파일 목록)</t>
-  </si>
-  <si>
-    <t>[permission] [user] [group] [size] [time] [path]</t>
+④ ls -l (새로운 파일 목록)
+</t>
+  </si>
+  <si>
+    <t>[permission] [user] [userGroup] [size] [time] [path]</t>
   </si>
   <si>
     <t>/log/post-file</t>
@@ -550,11 +589,9 @@
   </si>
   <si>
     <t>① 데이터를 json 형식으로 정렬한다.
-② json을 text화 시킨 다음, utf-8로 인코딩
-    하여 한글(2바이트)를 1바이트로 쪼개
-    암호화 시 에러를 방지한다.
-③ 미리 정해 둔 키 값으로
-    AES 혹은 RSA 암호화 시킨다.</t>
+② json을 text화 시킨 다음, reverse 시킨다.
+③ reverse된 text를 16진수로 바꾸고, 앞에 문자 b를 붙여 전송한다.
+# 소스코드 탈취를 대비하여, 낚시용 주석인 binary를 붙임으로 써, 앞에 붙은 b가 바이너리를 의미하는 것 처럼 속여버린다.</t>
   </si>
   <si>
     <t>-</t>
@@ -575,27 +612,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>① Suricata를 사용하여 통신 IP, Port 수집
-(대응 시 수집했던 초기 통신은 필터링)
-② 룰에 매칭 된 패킷을 5초마다 API서버로 전송</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>① sudo suricata -s rule.rules -i eth0
-② sudo tail -f /var/log/suricata/fast.log</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[time] [srcIP] [srcPort] [dstIP] [dstPort] [data]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>/network/post-packet</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>네트워크 패킷 송신</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>혼선</t>
@@ -763,6 +784,9 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>모두</t>
+  </si>
+  <si>
     <t>공격 로그 기록</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -789,7 +813,6 @@
 ③ 접속에 성공할 경우, 사용자로 인해 추가된
     스키마 및 테이블을 찾아 데이터를 탈취한다.
     (DELETE는 하지말것)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>① python에 mysql라이브러리를 부착한다.
@@ -811,15 +834,6 @@
   </si>
   <si>
     <t>① C&amp;C 서버로 보내는 모든 통신은 암호화 시킨다.</t>
-  </si>
-  <si>
-    <t>① 데이터를 json 형식으로 정렬한다.
-② json을 text화 시킨 다음, utf-8로 인코딩
-    하여 한글(2바이트)를 1바이트로 쪼개
-    암호화 시 에러를 방지한다.
-③ 미리 정해 둔 키 값으로
-    AES 혹은 RSA 암호화 시킨다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>REST API 서버
@@ -914,7 +928,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -947,8 +961,23 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -996,8 +1025,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="29">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -1301,16 +1336,57 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="dashed">
+        <color rgb="FFE7E6E6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="dashed">
+        <color rgb="FFE7E6E6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="dashed">
+        <color rgb="FFE7E6E6"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1335,9 +1411,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1458,10 +1531,70 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1476,12 +1609,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1539,6 +1666,30 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1557,20 +1708,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="2" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
     <cellStyle name="강조색2" xfId="1" builtinId="33"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1593,14 +1733,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>2305050</xdr:colOff>
-      <xdr:row>142</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1314450</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1637,7 +1777,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1933,1162 +2073,1364 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B20606A0-8F97-42D7-B07E-C96D54E662E5}">
-  <dimension ref="A1:K44"/>
+  <dimension ref="A1:L48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17.45"/>
   <cols>
-    <col min="1" max="2" width="15.19921875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.3984375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.69921875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.59765625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.8984375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="45" customWidth="1"/>
-    <col min="8" max="8" width="38.59765625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="45" style="1" customWidth="1"/>
-    <col min="10" max="10" width="20.5" style="1" customWidth="1"/>
-    <col min="11" max="11" width="30.69921875" style="1" customWidth="1"/>
+    <col min="1" max="2" width="15.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="45" customWidth="1"/>
+    <col min="9" max="9" width="38.625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="45" style="1" customWidth="1"/>
+    <col min="11" max="11" width="20.5" style="1" customWidth="1"/>
+    <col min="12" max="12" width="30.75" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:12" ht="16.5">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+    </row>
+    <row r="2" spans="1:12" ht="16.5">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="H2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="I2" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="69.599999999999994" x14ac:dyDescent="0.4">
-      <c r="A2" s="57" t="s">
+      <c r="J2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="85" t="s">
+      <c r="K2" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="L2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6" t="s">
+    </row>
+    <row r="3" spans="1:12" ht="82.5">
+      <c r="A3" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="B3" s="96" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="28" t="s">
+      <c r="C3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="28" t="s">
+      <c r="D3" s="6"/>
+      <c r="E3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="F3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="G3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="25" t="s">
+      <c r="H3" s="27" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="A3" s="58"/>
-      <c r="B3" s="82"/>
-      <c r="C3" s="78" t="s">
+      <c r="I3" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="50"/>
-      <c r="E3" s="53" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="53" t="s">
+      <c r="J3" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="80" t="s">
+      <c r="K3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="80" t="s">
+      <c r="L3" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="21" t="s">
+    </row>
+    <row r="4" spans="1:12" ht="49.5">
+      <c r="A4" s="75"/>
+      <c r="B4" s="94"/>
+      <c r="C4" s="103" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="53" t="s">
+      <c r="D4" s="55"/>
+      <c r="E4" s="72" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="K3" s="76" t="s">
+      <c r="H4" s="105" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="105" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="72" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" s="101" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="49.5">
+      <c r="A5" s="76"/>
+      <c r="B5" s="94"/>
+      <c r="C5" s="104"/>
+      <c r="D5" s="72" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="106"/>
+      <c r="I5" s="106"/>
+      <c r="J5" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L5" s="102"/>
+    </row>
+    <row r="6" spans="1:12" ht="66">
+      <c r="A6" s="76"/>
+      <c r="B6" s="95"/>
+      <c r="C6" s="69" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="69" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="69" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="K6" s="69" t="s">
+        <v>40</v>
+      </c>
+      <c r="L6" s="26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="82.5">
+      <c r="A7" s="76"/>
+      <c r="B7" s="93" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="I7" s="51" t="s">
+        <v>46</v>
+      </c>
+      <c r="J7" s="52" t="s">
+        <v>47</v>
+      </c>
+      <c r="K7" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="L7" s="53" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="82.5">
+      <c r="A8" s="76"/>
+      <c r="B8" s="94"/>
+      <c r="C8" s="98" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="H8" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="I8" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="J8" s="48" t="s">
+        <v>54</v>
+      </c>
+      <c r="K8" s="55" t="s">
+        <v>55</v>
+      </c>
+      <c r="L8" s="70" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="82.5">
+      <c r="A9" s="76"/>
+      <c r="B9" s="95"/>
+      <c r="C9" s="99"/>
+      <c r="D9" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="72" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="72" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="72" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9" s="73" t="s">
+        <v>52</v>
+      </c>
+      <c r="I9" s="73" t="s">
+        <v>57</v>
+      </c>
+      <c r="J9" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="K9" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="L9" s="71" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="214.5">
+      <c r="A10" s="76"/>
+      <c r="B10" s="93" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H10" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="I10" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="J10" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="L10" s="23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="115.5">
+      <c r="A11" s="76"/>
+      <c r="B11" s="95"/>
+      <c r="C11" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="69" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="G11" s="69" t="s">
+        <v>71</v>
+      </c>
+      <c r="H11" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="I11" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="J11" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="K11" s="69" t="s">
+        <v>75</v>
+      </c>
+      <c r="L11" s="26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="181.5">
+      <c r="A12" s="76"/>
+      <c r="B12" s="94" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" s="72" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12" s="72"/>
+      <c r="E12" s="72" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="72" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="72" t="s">
+        <v>79</v>
+      </c>
+      <c r="H12" s="73" t="s">
+        <v>80</v>
+      </c>
+      <c r="I12" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="J12" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="K12" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="L12" s="71" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="33">
+      <c r="A13" s="76"/>
+      <c r="B13" s="94"/>
+      <c r="C13" s="72" t="s">
+        <v>85</v>
+      </c>
+      <c r="D13" s="72" t="s">
+        <v>86</v>
+      </c>
+      <c r="E13" s="72" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="72" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="72" t="s">
+        <v>87</v>
+      </c>
+      <c r="H13" s="73" t="s">
+        <v>88</v>
+      </c>
+      <c r="I13" s="36" t="s">
+        <v>89</v>
+      </c>
+      <c r="J13" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="K13" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="L13" s="71" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="49.5">
+      <c r="A14" s="76"/>
+      <c r="B14" s="94"/>
+      <c r="C14" s="72" t="s">
+        <v>93</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="E14" s="72" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="72" t="s">
+        <v>95</v>
+      </c>
+      <c r="H14" s="73" t="s">
+        <v>96</v>
+      </c>
+      <c r="I14" s="36" t="s">
+        <v>97</v>
+      </c>
+      <c r="J14" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="K14" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="L14" s="71" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="49.5">
+      <c r="A15" s="76"/>
+      <c r="B15" s="94"/>
+      <c r="C15" s="55" t="s">
+        <v>101</v>
+      </c>
+      <c r="D15" s="55"/>
+      <c r="E15" s="55" t="s">
+        <v>78</v>
+      </c>
+      <c r="F15" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="55" t="s">
+        <v>102</v>
+      </c>
+      <c r="H15" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="I15" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="J15" s="55" t="s">
+        <v>105</v>
+      </c>
+      <c r="K15" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="L15" s="71" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="49.5">
+      <c r="A16" s="76"/>
+      <c r="B16" s="94"/>
+      <c r="C16" s="55" t="s">
+        <v>107</v>
+      </c>
+      <c r="D16" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="E16" s="55" t="s">
+        <v>78</v>
+      </c>
+      <c r="F16" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="55" t="s">
+        <v>109</v>
+      </c>
+      <c r="H16" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="I16" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="J16" s="55" t="s">
+        <v>112</v>
+      </c>
+      <c r="K16" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="L16" s="70" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="49.5">
+      <c r="A17" s="76"/>
+      <c r="B17" s="94"/>
+      <c r="C17" s="55" t="s">
+        <v>114</v>
+      </c>
+      <c r="D17" s="39" t="s">
+        <v>115</v>
+      </c>
+      <c r="E17" s="55" t="s">
+        <v>78</v>
+      </c>
+      <c r="F17" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="55" t="s">
+        <v>116</v>
+      </c>
+      <c r="H17" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="I17" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="J17" s="39" t="s">
+        <v>119</v>
+      </c>
+      <c r="K17" s="39" t="s">
+        <v>120</v>
+      </c>
+      <c r="L17" s="70" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="49.5">
+      <c r="A18" s="76"/>
+      <c r="B18" s="94"/>
+      <c r="C18" s="55" t="s">
+        <v>121</v>
+      </c>
+      <c r="D18" s="39"/>
+      <c r="E18" s="55" t="s">
+        <v>78</v>
+      </c>
+      <c r="F18" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="55" t="s">
+        <v>122</v>
+      </c>
+      <c r="H18" s="38" t="s">
+        <v>123</v>
+      </c>
+      <c r="I18" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="J18" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="K18" s="39" t="s">
+        <v>126</v>
+      </c>
+      <c r="L18" s="70" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="132">
+      <c r="A19" s="76"/>
+      <c r="B19" s="94"/>
+      <c r="C19" s="55" t="s">
+        <v>127</v>
+      </c>
+      <c r="D19" s="39" t="s">
+        <v>128</v>
+      </c>
+      <c r="E19" s="55" t="s">
+        <v>78</v>
+      </c>
+      <c r="F19" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="55" t="s">
+        <v>129</v>
+      </c>
+      <c r="H19" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="I19" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="J19" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="K19" s="39" t="s">
+        <v>133</v>
+      </c>
+      <c r="L19" s="70" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="99.75" customHeight="1">
+      <c r="A20" s="76"/>
+      <c r="B20" s="94"/>
+      <c r="C20" s="55" t="s">
+        <v>134</v>
+      </c>
+      <c r="D20" s="55"/>
+      <c r="E20" s="55" t="s">
+        <v>50</v>
+      </c>
+      <c r="F20" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="55" t="s">
+        <v>135</v>
+      </c>
+      <c r="H20" s="38" t="s">
+        <v>136</v>
+      </c>
+      <c r="I20" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="J20" s="39" t="s">
+        <v>138</v>
+      </c>
+      <c r="K20" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="L20" s="70"/>
+    </row>
+    <row r="21" spans="1:12" ht="148.5">
+      <c r="A21" s="76"/>
+      <c r="B21" s="94"/>
+      <c r="C21" s="55" t="s">
+        <v>140</v>
+      </c>
+      <c r="D21" s="55"/>
+      <c r="E21" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" s="55" t="s">
+        <v>141</v>
+      </c>
+      <c r="H21" s="38" t="s">
+        <v>142</v>
+      </c>
+      <c r="I21" s="38" t="s">
+        <v>143</v>
+      </c>
+      <c r="J21" s="39" t="s">
+        <v>144</v>
+      </c>
+      <c r="K21" s="39" t="s">
+        <v>144</v>
+      </c>
+      <c r="L21" s="70" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="82.5">
+      <c r="A22" s="90" t="s">
+        <v>145</v>
+      </c>
+      <c r="B22" s="85" t="s">
+        <v>146</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="H22" s="40" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="A4" s="59"/>
-      <c r="B4" s="82"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="53" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K4" s="77"/>
-    </row>
-    <row r="5" spans="1:11" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="A5" s="59"/>
-      <c r="B5" s="84"/>
-      <c r="C5" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="H5" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="I5" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="K5" s="27" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="69.599999999999994" x14ac:dyDescent="0.4">
-      <c r="A6" s="59"/>
-      <c r="B6" s="55" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="H6" s="30" t="s">
+      <c r="I22" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="J22" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="L22" s="41" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="82.5">
+      <c r="A23" s="91"/>
+      <c r="B23" s="86"/>
+      <c r="C23" s="97" t="s">
+        <v>149</v>
+      </c>
+      <c r="D23" s="67"/>
+      <c r="E23" s="67"/>
+      <c r="F23" s="67"/>
+      <c r="G23" s="97" t="s">
+        <v>150</v>
+      </c>
+      <c r="H23" s="56" t="s">
+        <v>151</v>
+      </c>
+      <c r="I23" s="56" t="s">
+        <v>152</v>
+      </c>
+      <c r="J23" s="63" t="s">
+        <v>144</v>
+      </c>
+      <c r="K23" s="63" t="s">
+        <v>153</v>
+      </c>
+      <c r="L23" s="57" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="49.5">
+      <c r="A24" s="91"/>
+      <c r="B24" s="86"/>
+      <c r="C24" s="97"/>
+      <c r="D24" s="68"/>
+      <c r="E24" s="68"/>
+      <c r="F24" s="68"/>
+      <c r="G24" s="97"/>
+      <c r="H24" s="64" t="s">
+        <v>154</v>
+      </c>
+      <c r="I24" s="64" t="s">
+        <v>155</v>
+      </c>
+      <c r="J24" s="65" t="s">
+        <v>156</v>
+      </c>
+      <c r="K24" s="68" t="s">
+        <v>157</v>
+      </c>
+      <c r="L24" s="66" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="66">
+      <c r="A25" s="91"/>
+      <c r="B25" s="87"/>
+      <c r="C25" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="H25" s="33" t="s">
+        <v>160</v>
+      </c>
+      <c r="I25" s="43" t="s">
+        <v>161</v>
+      </c>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="16"/>
+    </row>
+    <row r="26" spans="1:12" ht="132">
+      <c r="A26" s="91"/>
+      <c r="B26" s="88" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="J6" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="K6" s="24" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="243.6" x14ac:dyDescent="0.4">
-      <c r="A7" s="59"/>
-      <c r="B7" s="83" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="G7" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="H7" s="30" t="s">
+      <c r="C26" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="H26" s="42" t="s">
+        <v>163</v>
+      </c>
+      <c r="I26" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="J26" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="K26" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="L26" s="17" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="49.5">
+      <c r="A27" s="91"/>
+      <c r="B27" s="86"/>
+      <c r="C27" s="63" t="s">
+        <v>164</v>
+      </c>
+      <c r="D27" s="63"/>
+      <c r="E27" s="63"/>
+      <c r="F27" s="63"/>
+      <c r="G27" s="58" t="s">
+        <v>165</v>
+      </c>
+      <c r="H27" s="56" t="s">
+        <v>166</v>
+      </c>
+      <c r="I27" s="56" t="s">
+        <v>167</v>
+      </c>
+      <c r="J27" s="58" t="s">
+        <v>144</v>
+      </c>
+      <c r="K27" s="63" t="s">
+        <v>144</v>
+      </c>
+      <c r="L27" s="59" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="148.5">
+      <c r="A28" s="91"/>
+      <c r="B28" s="87"/>
+      <c r="C28" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="I7" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="J7" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="K7" s="24" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="87" x14ac:dyDescent="0.4">
-      <c r="A8" s="59"/>
-      <c r="B8" s="84"/>
-      <c r="C8" s="49" t="s">
-        <v>54</v>
-      </c>
-      <c r="D8" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="G8" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="H8" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="I8" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="K8" s="27" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="104.4" x14ac:dyDescent="0.4">
-      <c r="A9" s="59"/>
-      <c r="B9" s="82" t="s">
-        <v>61</v>
-      </c>
-      <c r="C9" s="53" t="s">
-        <v>62</v>
-      </c>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53" t="s">
-        <v>63</v>
-      </c>
-      <c r="F9" s="53" t="s">
-        <v>64</v>
-      </c>
-      <c r="G9" s="54" t="s">
-        <v>65</v>
-      </c>
-      <c r="H9" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="I9" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="J9" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="K9" s="52" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="A10" s="59"/>
-      <c r="B10" s="82"/>
-      <c r="C10" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="D10" s="53" t="s">
-        <v>71</v>
-      </c>
-      <c r="E10" s="53" t="s">
-        <v>63</v>
-      </c>
-      <c r="F10" s="53" t="s">
-        <v>72</v>
-      </c>
-      <c r="G10" s="54" t="s">
-        <v>73</v>
-      </c>
-      <c r="H10" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="I10" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="J10" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="K10" s="52" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="A11" s="59"/>
-      <c r="B11" s="82"/>
-      <c r="C11" s="53" t="s">
-        <v>78</v>
-      </c>
-      <c r="D11" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="E11" s="53" t="s">
-        <v>63</v>
-      </c>
-      <c r="F11" s="53" t="s">
-        <v>80</v>
-      </c>
-      <c r="G11" s="54" t="s">
-        <v>81</v>
-      </c>
-      <c r="H11" s="37" t="s">
-        <v>82</v>
-      </c>
-      <c r="I11" s="53" t="s">
-        <v>83</v>
-      </c>
-      <c r="J11" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="K11" s="52" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="A12" s="59"/>
-      <c r="B12" s="82"/>
-      <c r="C12" s="50" t="s">
-        <v>86</v>
-      </c>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50" t="s">
-        <v>63</v>
-      </c>
-      <c r="F12" s="50" t="s">
-        <v>87</v>
-      </c>
-      <c r="G12" s="54" t="s">
-        <v>88</v>
-      </c>
-      <c r="H12" s="33" t="s">
-        <v>89</v>
-      </c>
-      <c r="I12" s="50" t="s">
-        <v>90</v>
-      </c>
-      <c r="J12" s="40" t="s">
-        <v>91</v>
-      </c>
-      <c r="K12" s="52" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="A13" s="59"/>
-      <c r="B13" s="82"/>
-      <c r="C13" s="50" t="s">
-        <v>92</v>
-      </c>
-      <c r="D13" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="E13" s="50" t="s">
-        <v>63</v>
-      </c>
-      <c r="F13" s="50" t="s">
-        <v>94</v>
-      </c>
-      <c r="G13" s="39" t="s">
-        <v>95</v>
-      </c>
-      <c r="H13" s="39" t="s">
-        <v>96</v>
-      </c>
-      <c r="I13" s="50" t="s">
-        <v>97</v>
-      </c>
-      <c r="J13" s="40" t="s">
-        <v>98</v>
-      </c>
-      <c r="K13" s="51" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="A14" s="59"/>
-      <c r="B14" s="82"/>
-      <c r="C14" s="50" t="s">
-        <v>99</v>
-      </c>
-      <c r="D14" s="40" t="s">
-        <v>100</v>
-      </c>
-      <c r="E14" s="50" t="s">
-        <v>63</v>
-      </c>
-      <c r="F14" s="50" t="s">
-        <v>101</v>
-      </c>
-      <c r="G14" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="H14" s="39" t="s">
-        <v>103</v>
-      </c>
-      <c r="I14" s="40" t="s">
-        <v>104</v>
-      </c>
-      <c r="J14" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="K14" s="51" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="A15" s="59"/>
-      <c r="B15" s="82"/>
-      <c r="C15" s="50" t="s">
-        <v>106</v>
-      </c>
-      <c r="D15" s="40"/>
-      <c r="E15" s="50" t="s">
-        <v>63</v>
-      </c>
-      <c r="F15" s="50" t="s">
-        <v>107</v>
-      </c>
-      <c r="G15" s="39" t="s">
-        <v>108</v>
-      </c>
-      <c r="H15" s="39" t="s">
-        <v>109</v>
-      </c>
-      <c r="I15" s="40" t="s">
-        <v>110</v>
-      </c>
-      <c r="J15" s="40" t="s">
-        <v>111</v>
-      </c>
-      <c r="K15" s="51" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="104.4" x14ac:dyDescent="0.4">
-      <c r="A16" s="59"/>
-      <c r="B16" s="82"/>
-      <c r="C16" s="50" t="s">
-        <v>112</v>
-      </c>
-      <c r="D16" s="40" t="s">
-        <v>113</v>
-      </c>
-      <c r="E16" s="50" t="s">
-        <v>63</v>
-      </c>
-      <c r="F16" s="50" t="s">
-        <v>114</v>
-      </c>
-      <c r="G16" s="39" t="s">
-        <v>115</v>
-      </c>
-      <c r="H16" s="39" t="s">
-        <v>116</v>
-      </c>
-      <c r="I16" s="40" t="s">
-        <v>117</v>
-      </c>
-      <c r="J16" s="40" t="s">
-        <v>118</v>
-      </c>
-      <c r="K16" s="51" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="59"/>
-      <c r="B17" s="82"/>
-      <c r="C17" s="50" t="s">
-        <v>119</v>
-      </c>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="50" t="s">
-        <v>120</v>
-      </c>
-      <c r="G17" s="39" t="s">
-        <v>121</v>
-      </c>
-      <c r="H17" s="39" t="s">
-        <v>122</v>
-      </c>
-      <c r="I17" s="40" t="s">
-        <v>123</v>
-      </c>
-      <c r="J17" s="40" t="s">
-        <v>124</v>
-      </c>
-      <c r="K17" s="51"/>
-    </row>
-    <row r="18" spans="1:11" ht="104.4" x14ac:dyDescent="0.4">
-      <c r="A18" s="59"/>
-      <c r="B18" s="82"/>
-      <c r="C18" s="50" t="s">
-        <v>125</v>
-      </c>
-      <c r="D18" s="50"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="50" t="s">
-        <v>126</v>
-      </c>
-      <c r="G18" s="39" t="s">
-        <v>127</v>
-      </c>
-      <c r="H18" s="39" t="s">
-        <v>128</v>
-      </c>
-      <c r="I18" s="40" t="s">
-        <v>129</v>
-      </c>
-      <c r="J18" s="40" t="s">
-        <v>129</v>
-      </c>
-      <c r="K18" s="51" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="A19" s="73" t="s">
-        <v>130</v>
-      </c>
-      <c r="B19" s="68" t="s">
-        <v>131</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="G19" s="41" t="s">
-        <v>133</v>
-      </c>
-      <c r="H19" s="41" t="s">
-        <v>134</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="J19" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="K19" s="42" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="A20" s="74"/>
-      <c r="B20" s="69"/>
-      <c r="C20" s="56" t="s">
-        <v>137</v>
-      </c>
-      <c r="D20" s="50"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="56" t="s">
-        <v>138</v>
-      </c>
-      <c r="G20" s="39" t="s">
-        <v>139</v>
-      </c>
-      <c r="H20" s="39" t="s">
-        <v>140</v>
-      </c>
-      <c r="I20" s="50" t="s">
-        <v>129</v>
-      </c>
-      <c r="J20" s="50" t="s">
-        <v>141</v>
-      </c>
-      <c r="K20" s="16" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="A21" s="74"/>
-      <c r="B21" s="69"/>
-      <c r="C21" s="56"/>
-      <c r="D21" s="50"/>
-      <c r="E21" s="50"/>
-      <c r="F21" s="56"/>
-      <c r="G21" s="39" t="s">
-        <v>142</v>
-      </c>
-      <c r="H21" s="39" t="s">
-        <v>143</v>
-      </c>
-      <c r="I21" s="40" t="s">
-        <v>144</v>
-      </c>
-      <c r="J21" s="50" t="s">
-        <v>145</v>
-      </c>
-      <c r="K21" s="51" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="69.599999999999994" x14ac:dyDescent="0.4">
-      <c r="A22" s="74"/>
-      <c r="B22" s="70"/>
-      <c r="C22" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="G22" s="34" t="s">
-        <v>148</v>
-      </c>
-      <c r="H22" s="44" t="s">
-        <v>149</v>
-      </c>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="17"/>
-    </row>
-    <row r="23" spans="1:11" ht="121.8" x14ac:dyDescent="0.4">
-      <c r="A23" s="74"/>
-      <c r="B23" s="71" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="G23" s="43" t="s">
-        <v>151</v>
-      </c>
-      <c r="H23" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="I23" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="J23" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="K23" s="18" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="A24" s="74"/>
-      <c r="B24" s="69"/>
-      <c r="C24" s="50" t="s">
-        <v>152</v>
-      </c>
-      <c r="D24" s="50"/>
-      <c r="E24" s="50"/>
-      <c r="F24" s="40" t="s">
-        <v>153</v>
-      </c>
-      <c r="G24" s="39" t="s">
-        <v>154</v>
-      </c>
-      <c r="H24" s="39" t="s">
-        <v>155</v>
-      </c>
-      <c r="I24" s="40" t="s">
-        <v>129</v>
-      </c>
-      <c r="J24" s="50" t="s">
-        <v>129</v>
-      </c>
-      <c r="K24" s="51" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="87" x14ac:dyDescent="0.4">
-      <c r="A25" s="74"/>
-      <c r="B25" s="70"/>
-      <c r="C25" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="45" t="s">
-        <v>157</v>
-      </c>
-      <c r="G25" s="44" t="s">
-        <v>158</v>
-      </c>
-      <c r="H25" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="I25" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="J25" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="K25" s="17" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="A26" s="74"/>
-      <c r="B26" s="71" t="s">
-        <v>160</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="G26" s="43" t="s">
-        <v>162</v>
-      </c>
-      <c r="H26" s="43" t="s">
-        <v>163</v>
-      </c>
-      <c r="I26" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="J26" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="K26" s="18" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="69.599999999999994" x14ac:dyDescent="0.4">
-      <c r="A27" s="74"/>
-      <c r="B27" s="69"/>
-      <c r="C27" s="50" t="s">
-        <v>164</v>
-      </c>
-      <c r="D27" s="50"/>
-      <c r="E27" s="50"/>
-      <c r="F27" s="50" t="s">
-        <v>138</v>
-      </c>
-      <c r="G27" s="39" t="s">
-        <v>165</v>
-      </c>
-      <c r="H27" s="39" t="s">
-        <v>166</v>
-      </c>
-      <c r="I27" s="50"/>
-      <c r="J27" s="50" t="s">
-        <v>129</v>
-      </c>
-      <c r="K27" s="16" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="87" x14ac:dyDescent="0.4">
-      <c r="A28" s="74"/>
-      <c r="B28" s="70"/>
-      <c r="C28" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10" t="s">
-        <v>168</v>
-      </c>
+      <c r="F28" s="9"/>
       <c r="G28" s="44" t="s">
         <v>169</v>
       </c>
-      <c r="H28" s="34" t="s">
-        <v>129</v>
-      </c>
-      <c r="I28" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="J28" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="K28" s="17" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="A29" s="74"/>
-      <c r="B29" s="69" t="s">
-        <v>61</v>
-      </c>
-      <c r="C29" s="50" t="s">
+      <c r="H28" s="43" t="s">
         <v>170</v>
       </c>
-      <c r="D29" s="50"/>
-      <c r="E29" s="50"/>
-      <c r="F29" s="50" t="s">
+      <c r="I28" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="J28" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="K28" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="G29" s="33" t="s">
+      <c r="L28" s="16" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="49.5">
+      <c r="A29" s="91"/>
+      <c r="B29" s="88" t="s">
         <v>172</v>
       </c>
-      <c r="H29" s="33"/>
-      <c r="I29" s="40" t="s">
+      <c r="C29" s="60" t="s">
         <v>173</v>
       </c>
-      <c r="J29" s="50" t="s">
+      <c r="D29" s="60"/>
+      <c r="E29" s="60"/>
+      <c r="F29" s="60"/>
+      <c r="G29" s="60" t="s">
+        <v>150</v>
+      </c>
+      <c r="H29" s="61" t="s">
         <v>174</v>
       </c>
-      <c r="K29" s="51" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="87" x14ac:dyDescent="0.4">
-      <c r="A30" s="74"/>
-      <c r="B30" s="69"/>
-      <c r="C30" s="50" t="s">
+      <c r="I29" s="61" t="s">
         <v>175</v>
       </c>
-      <c r="D30" s="50"/>
-      <c r="E30" s="50"/>
-      <c r="F30" s="50" t="s">
-        <v>132</v>
-      </c>
-      <c r="G30" s="39" t="s">
+      <c r="J29" s="60" t="s">
+        <v>144</v>
+      </c>
+      <c r="K29" s="60" t="s">
+        <v>144</v>
+      </c>
+      <c r="L29" s="62" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="99">
+      <c r="A30" s="91"/>
+      <c r="B30" s="86"/>
+      <c r="C30" s="63" t="s">
         <v>176</v>
       </c>
-      <c r="H30" s="39" t="s">
+      <c r="D30" s="63"/>
+      <c r="E30" s="63"/>
+      <c r="F30" s="63"/>
+      <c r="G30" s="63" t="s">
+        <v>150</v>
+      </c>
+      <c r="H30" s="56" t="s">
         <v>177</v>
       </c>
-      <c r="I30" s="40" t="s">
+      <c r="I30" s="56" t="s">
         <v>178</v>
       </c>
-      <c r="J30" s="50" t="s">
+      <c r="J30" s="63"/>
+      <c r="K30" s="63" t="s">
+        <v>144</v>
+      </c>
+      <c r="L30" s="57" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="99">
+      <c r="A31" s="91"/>
+      <c r="B31" s="87"/>
+      <c r="C31" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="K30" s="51" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="104.4" x14ac:dyDescent="0.4">
-      <c r="A31" s="75"/>
-      <c r="B31" s="72"/>
-      <c r="C31" s="50" t="s">
+      <c r="D31" s="9"/>
+      <c r="E31" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="D31" s="50"/>
-      <c r="E31" s="50"/>
-      <c r="F31" s="50" t="s">
-        <v>126</v>
-      </c>
-      <c r="G31" s="39" t="s">
+      <c r="H31" s="43" t="s">
         <v>181</v>
       </c>
-      <c r="H31" s="39" t="s">
+      <c r="I31" s="33" t="s">
+        <v>144</v>
+      </c>
+      <c r="J31" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="K31" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="L31" s="16" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="49.5">
+      <c r="A32" s="91"/>
+      <c r="B32" s="86" t="s">
+        <v>76</v>
+      </c>
+      <c r="C32" s="55" t="s">
         <v>182</v>
       </c>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="14"/>
-    </row>
-    <row r="32" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="A32" s="60" t="s">
+      <c r="D32" s="55"/>
+      <c r="E32" s="55" t="s">
         <v>183</v>
       </c>
-      <c r="B32" s="63" t="s">
-        <v>131</v>
-      </c>
-      <c r="C32" s="4" t="s">
+      <c r="F32" s="55"/>
+      <c r="G32" s="55" t="s">
         <v>184</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="H32" s="32" t="s">
         <v>185</v>
       </c>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4" t="s">
+      <c r="I32" s="32"/>
+      <c r="J32" s="39" t="s">
         <v>186</v>
       </c>
-      <c r="G32" s="41" t="s">
+      <c r="K32" s="55" t="s">
         <v>187</v>
       </c>
-      <c r="H32" s="46" t="s">
+      <c r="L32" s="70" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="99">
+      <c r="A33" s="91"/>
+      <c r="B33" s="86"/>
+      <c r="C33" s="55" t="s">
         <v>188</v>
       </c>
-      <c r="I32" s="46" t="s">
+      <c r="D33" s="55"/>
+      <c r="E33" s="55" t="s">
+        <v>78</v>
+      </c>
+      <c r="F33" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="G33" s="55" t="s">
+        <v>147</v>
+      </c>
+      <c r="H33" s="38" t="s">
         <v>189</v>
       </c>
-      <c r="J32" s="4"/>
-      <c r="K32" s="15" t="s">
+      <c r="I33" s="38" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" ht="69.599999999999994" x14ac:dyDescent="0.4">
-      <c r="A33" s="61"/>
-      <c r="B33" s="64"/>
-      <c r="C33" s="50" t="s">
+      <c r="J33" s="39" t="s">
         <v>191</v>
       </c>
-      <c r="D33" s="50" t="s">
+      <c r="K33" s="55" t="s">
         <v>192</v>
       </c>
-      <c r="E33" s="50"/>
-      <c r="F33" s="50" t="s">
+      <c r="L33" s="70" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="148.5">
+      <c r="A34" s="92"/>
+      <c r="B34" s="89"/>
+      <c r="C34" s="55" t="s">
         <v>193</v>
       </c>
-      <c r="G33" s="39" t="s">
+      <c r="D34" s="55"/>
+      <c r="E34" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="F34" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="G34" s="55" t="s">
+        <v>141</v>
+      </c>
+      <c r="H34" s="38" t="s">
         <v>194</v>
       </c>
-      <c r="H33" s="50" t="s">
+      <c r="I34" s="38" t="s">
+        <v>143</v>
+      </c>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="13"/>
+    </row>
+    <row r="35" spans="1:12" ht="49.5">
+      <c r="A35" s="77" t="s">
         <v>195</v>
       </c>
-      <c r="I33" s="40" t="s">
+      <c r="B35" s="80" t="s">
+        <v>146</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="J33" s="50"/>
-      <c r="K33" s="16" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="A34" s="61"/>
-      <c r="B34" s="64"/>
-      <c r="C34" s="50" t="s">
+      <c r="D35" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="D34" s="50" t="s">
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="E34" s="50"/>
-      <c r="F34" s="50" t="s">
+      <c r="H35" s="40" t="s">
         <v>199</v>
       </c>
-      <c r="G34" s="39" t="s">
+      <c r="I35" s="45" t="s">
         <v>200</v>
       </c>
-      <c r="H34" s="50" t="s">
-        <v>195</v>
-      </c>
-      <c r="I34" s="40" t="s">
+      <c r="J35" s="45" t="s">
         <v>201</v>
       </c>
-      <c r="J34" s="50"/>
-      <c r="K34" s="16" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="A35" s="61"/>
-      <c r="B35" s="65"/>
-      <c r="C35" s="12" t="s">
+      <c r="K35" s="4"/>
+      <c r="L35" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="D35" s="48" t="s">
+    </row>
+    <row r="36" spans="1:12" ht="99">
+      <c r="A36" s="78"/>
+      <c r="B36" s="81"/>
+      <c r="C36" s="55" t="s">
         <v>203</v>
       </c>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12" t="s">
+      <c r="D36" s="55" t="s">
         <v>204</v>
       </c>
-      <c r="G35" s="47" t="s">
+      <c r="E36" s="55"/>
+      <c r="F36" s="55"/>
+      <c r="G36" s="55" t="s">
         <v>205</v>
       </c>
-      <c r="H35" s="12" t="s">
+      <c r="H36" s="38" t="s">
         <v>206</v>
       </c>
-      <c r="I35" s="48" t="s">
+      <c r="I36" s="55" t="s">
         <v>207</v>
       </c>
-      <c r="J35" s="12"/>
-      <c r="K35" s="19" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A36" s="61"/>
-      <c r="B36" s="66" t="s">
-        <v>37</v>
-      </c>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="36"/>
-      <c r="H36" s="36"/>
-      <c r="I36" s="13"/>
-      <c r="J36" s="13"/>
-      <c r="K36" s="20"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A37" s="61"/>
-      <c r="B37" s="64"/>
-      <c r="C37" s="50"/>
-      <c r="D37" s="50"/>
-      <c r="E37" s="50"/>
-      <c r="F37" s="50"/>
-      <c r="G37" s="33"/>
-      <c r="H37" s="33"/>
-      <c r="I37" s="50"/>
-      <c r="J37" s="50"/>
-      <c r="K37" s="16"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A38" s="61"/>
-      <c r="B38" s="65"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="35"/>
-      <c r="H38" s="35"/>
-      <c r="I38" s="12"/>
-      <c r="J38" s="12"/>
-      <c r="K38" s="19"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A39" s="61"/>
-      <c r="B39" s="66" t="s">
-        <v>160</v>
-      </c>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="36"/>
-      <c r="H39" s="36"/>
-      <c r="I39" s="13"/>
-      <c r="J39" s="13"/>
-      <c r="K39" s="20"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A40" s="61"/>
-      <c r="B40" s="64"/>
-      <c r="C40" s="50"/>
-      <c r="D40" s="50"/>
-      <c r="E40" s="50"/>
-      <c r="F40" s="50"/>
-      <c r="G40" s="33"/>
-      <c r="H40" s="33"/>
-      <c r="I40" s="50"/>
-      <c r="J40" s="50"/>
-      <c r="K40" s="16"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A41" s="61"/>
-      <c r="B41" s="65"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="35"/>
-      <c r="H41" s="35"/>
-      <c r="I41" s="12"/>
-      <c r="J41" s="12"/>
-      <c r="K41" s="19"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A42" s="61"/>
-      <c r="B42" s="64" t="s">
-        <v>61</v>
-      </c>
-      <c r="C42" s="50"/>
-      <c r="D42" s="50"/>
-      <c r="E42" s="50"/>
-      <c r="F42" s="50"/>
-      <c r="G42" s="33"/>
-      <c r="H42" s="33"/>
-      <c r="I42" s="50"/>
-      <c r="J42" s="50"/>
-      <c r="K42" s="16"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A43" s="61"/>
-      <c r="B43" s="64"/>
-      <c r="C43" s="50"/>
-      <c r="D43" s="50"/>
-      <c r="E43" s="50"/>
-      <c r="F43" s="50"/>
-      <c r="G43" s="33"/>
-      <c r="H43" s="33"/>
-      <c r="I43" s="50"/>
-      <c r="J43" s="50"/>
-      <c r="K43" s="16"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A44" s="62"/>
-      <c r="B44" s="67"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="32"/>
-      <c r="H44" s="32"/>
-      <c r="I44" s="3"/>
-      <c r="J44" s="3"/>
-      <c r="K44" s="14"/>
-    </row>
+      <c r="J36" s="39" t="s">
+        <v>208</v>
+      </c>
+      <c r="K36" s="55"/>
+      <c r="L36" s="15" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="49.5">
+      <c r="A37" s="78"/>
+      <c r="B37" s="81"/>
+      <c r="C37" s="55" t="s">
+        <v>209</v>
+      </c>
+      <c r="D37" s="55" t="s">
+        <v>210</v>
+      </c>
+      <c r="E37" s="55"/>
+      <c r="F37" s="55"/>
+      <c r="G37" s="55" t="s">
+        <v>211</v>
+      </c>
+      <c r="H37" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="I37" s="55" t="s">
+        <v>207</v>
+      </c>
+      <c r="J37" s="39" t="s">
+        <v>213</v>
+      </c>
+      <c r="K37" s="55"/>
+      <c r="L37" s="15" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="66">
+      <c r="A38" s="78"/>
+      <c r="B38" s="82"/>
+      <c r="C38" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="D38" s="47" t="s">
+        <v>215</v>
+      </c>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="H38" s="46" t="s">
+        <v>217</v>
+      </c>
+      <c r="I38" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="J38" s="47" t="s">
+        <v>219</v>
+      </c>
+      <c r="K38" s="11"/>
+      <c r="L38" s="18" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="16.5">
+      <c r="A39" s="78"/>
+      <c r="B39" s="83" t="s">
+        <v>42</v>
+      </c>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="35"/>
+      <c r="I39" s="35"/>
+      <c r="J39" s="12"/>
+      <c r="K39" s="12"/>
+      <c r="L39" s="19"/>
+    </row>
+    <row r="40" spans="1:12" ht="16.5">
+      <c r="A40" s="78"/>
+      <c r="B40" s="81"/>
+      <c r="C40" s="55"/>
+      <c r="D40" s="55"/>
+      <c r="E40" s="55"/>
+      <c r="F40" s="55"/>
+      <c r="G40" s="55"/>
+      <c r="H40" s="32"/>
+      <c r="I40" s="32"/>
+      <c r="J40" s="55"/>
+      <c r="K40" s="55"/>
+      <c r="L40" s="15"/>
+    </row>
+    <row r="41" spans="1:12" ht="16.5">
+      <c r="A41" s="78"/>
+      <c r="B41" s="82"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="34"/>
+      <c r="I41" s="34"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="18"/>
+    </row>
+    <row r="42" spans="1:12" ht="16.5">
+      <c r="A42" s="78"/>
+      <c r="B42" s="83" t="s">
+        <v>172</v>
+      </c>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="35"/>
+      <c r="I42" s="35"/>
+      <c r="J42" s="12"/>
+      <c r="K42" s="12"/>
+      <c r="L42" s="19"/>
+    </row>
+    <row r="43" spans="1:12" ht="16.5">
+      <c r="A43" s="78"/>
+      <c r="B43" s="81"/>
+      <c r="C43" s="55"/>
+      <c r="D43" s="55"/>
+      <c r="E43" s="55"/>
+      <c r="F43" s="55"/>
+      <c r="G43" s="55"/>
+      <c r="H43" s="32"/>
+      <c r="I43" s="32"/>
+      <c r="J43" s="55"/>
+      <c r="K43" s="55"/>
+      <c r="L43" s="15"/>
+    </row>
+    <row r="44" spans="1:12" ht="16.5">
+      <c r="A44" s="78"/>
+      <c r="B44" s="82"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="34"/>
+      <c r="I44" s="34"/>
+      <c r="J44" s="11"/>
+      <c r="K44" s="11"/>
+      <c r="L44" s="18"/>
+    </row>
+    <row r="45" spans="1:12" ht="16.5">
+      <c r="A45" s="78"/>
+      <c r="B45" s="81" t="s">
+        <v>76</v>
+      </c>
+      <c r="C45" s="55"/>
+      <c r="D45" s="55"/>
+      <c r="E45" s="55"/>
+      <c r="F45" s="55"/>
+      <c r="G45" s="55"/>
+      <c r="H45" s="32"/>
+      <c r="I45" s="32"/>
+      <c r="J45" s="55"/>
+      <c r="K45" s="55"/>
+      <c r="L45" s="15"/>
+    </row>
+    <row r="46" spans="1:12" ht="16.5">
+      <c r="A46" s="78"/>
+      <c r="B46" s="81"/>
+      <c r="C46" s="55"/>
+      <c r="D46" s="55"/>
+      <c r="E46" s="55"/>
+      <c r="F46" s="55"/>
+      <c r="G46" s="55"/>
+      <c r="H46" s="32"/>
+      <c r="I46" s="32"/>
+      <c r="J46" s="55"/>
+      <c r="K46" s="55"/>
+      <c r="L46" s="15"/>
+    </row>
+    <row r="47" spans="1:12" ht="16.5">
+      <c r="A47" s="79"/>
+      <c r="B47" s="84"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="31"/>
+      <c r="I47" s="31"/>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3"/>
+      <c r="L47" s="13"/>
+    </row>
+    <row r="48" spans="1:12" ht="16.5"/>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="B9:B18"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="A2:A18"/>
-    <mergeCell ref="A32:A44"/>
-    <mergeCell ref="B32:B35"/>
-    <mergeCell ref="B36:B38"/>
+  <mergeCells count="23">
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="B1:L1"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="A3:A21"/>
+    <mergeCell ref="A35:A47"/>
+    <mergeCell ref="B35:B38"/>
     <mergeCell ref="B39:B41"/>
     <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B22:B25"/>
     <mergeCell ref="B26:B28"/>
     <mergeCell ref="B29:B31"/>
-    <mergeCell ref="A19:A31"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="A22:A34"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B12:B21"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B3:B6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B1:L1" r:id="rId1" display="https://tinyurl.com/y4k3sa7s" xr:uid="{35901F32-FD20-4CA6-85D5-5D6808795BBD}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>